--- a/01_document/画面定義書.xlsx
+++ b/01_document/画面定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="216">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -639,19 +639,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>タチバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その他第３社</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1756,6 +1743,19 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>その他第３者</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1934,10 +1934,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -2653,78 +2653,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2776,14 +2704,86 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3255,173 +3255,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="屈折矢印 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2141220" y="2644140"/>
-          <a:ext cx="243840" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="屈折矢印 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1783080" y="2644140"/>
-          <a:ext cx="243840" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="屈折矢印 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2141220" y="5829300"/>
-          <a:ext cx="243840" cy="137160"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -3517,7 +3350,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3664,7 +3497,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4666,8 +4499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CO43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:K14"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
@@ -5057,10 +4890,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -5156,7 +4989,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -5348,10 +5181,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="1"/>
@@ -5828,26 +5661,26 @@
       <c r="A13" s="15"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="97" t="s">
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="16"/>
@@ -5927,22 +5760,22 @@
       <c r="A14" s="15"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="16"/>
@@ -8739,28 +8572,28 @@
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:93">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="104"/>
+      <c r="A1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="119"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -8834,28 +8667,28 @@
       <c r="CO1" s="1"/>
     </row>
     <row r="2" spans="1:93">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="107"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="122"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -9278,10 +9111,10 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="98" t="s">
+      <c r="R7" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="99"/>
+      <c r="S7" s="126"/>
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7" s="18"/>
@@ -11098,16 +10931,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="110" t="s">
+      <c r="N28" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="O28" s="111"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="128"/>
       <c r="V28" s="16"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
@@ -11195,14 +11028,14 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
       <c r="V29" s="16"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
@@ -12577,19 +12410,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="112" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="114"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
@@ -12910,14 +12743,14 @@
   <dimension ref="A1:CO45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:93">
       <c r="A1" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -13302,7 +13135,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -13397,7 +13230,7 @@
       <c r="A6" s="15"/>
       <c r="B6" s="1"/>
       <c r="D6" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
@@ -13587,7 +13420,7 @@
       <c r="A8" s="15"/>
       <c r="B8" s="1"/>
       <c r="D8" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>66</v>
@@ -13781,10 +13614,10 @@
       <c r="A10" s="15"/>
       <c r="B10" s="1"/>
       <c r="D10" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="14"/>
@@ -13879,7 +13712,7 @@
       <c r="A11" s="15"/>
       <c r="B11" s="1"/>
       <c r="D11" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -13975,7 +13808,7 @@
       <c r="A12" s="15"/>
       <c r="B12" s="1"/>
       <c r="D12" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>69</v>
@@ -14168,7 +14001,7 @@
       <c r="A14" s="15"/>
       <c r="B14" s="1"/>
       <c r="D14" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>68</v>
@@ -14362,10 +14195,10 @@
       <c r="A16" s="15"/>
       <c r="B16" s="1"/>
       <c r="D16" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -14460,7 +14293,7 @@
       <c r="A17" s="15"/>
       <c r="B17" s="1"/>
       <c r="D17" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
@@ -14555,7 +14388,7 @@
       <c r="A18" s="15"/>
       <c r="B18" s="1"/>
       <c r="D18" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>68</v>
@@ -14743,751 +14576,751 @@
       <c r="CN19" s="1"/>
       <c r="CO19" s="1"/>
     </row>
-    <row r="20" spans="1:93" s="118" customFormat="1">
-      <c r="A20" s="117"/>
-      <c r="C20" s="119" t="s">
-        <v>208</v>
+    <row r="20" spans="1:93" s="94" customFormat="1">
+      <c r="A20" s="93"/>
+      <c r="C20" s="95" t="s">
+        <v>207</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120" t="s">
-        <v>85</v>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="96" t="s">
+        <v>84</v>
       </c>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="119"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="121"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="119"/>
-      <c r="Y20" s="119"/>
-      <c r="Z20" s="119"/>
-      <c r="AA20" s="119"/>
-      <c r="AB20" s="119"/>
-      <c r="AC20" s="119"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="119"/>
-      <c r="AF20" s="119"/>
-      <c r="AG20" s="119"/>
-      <c r="AH20" s="119"/>
-      <c r="AI20" s="119"/>
-      <c r="AJ20" s="119"/>
-      <c r="AK20" s="119"/>
-      <c r="AL20" s="119"/>
-      <c r="AM20" s="119"/>
-      <c r="AN20" s="119"/>
-      <c r="AO20" s="119"/>
-      <c r="AP20" s="119"/>
-      <c r="AQ20" s="119"/>
-      <c r="AR20" s="119"/>
-      <c r="AS20" s="119"/>
-      <c r="AT20" s="119"/>
-      <c r="AU20" s="119"/>
-      <c r="AV20" s="119"/>
-      <c r="AW20" s="119"/>
-      <c r="AX20" s="119"/>
-      <c r="AY20" s="119"/>
-      <c r="AZ20" s="119"/>
-      <c r="BA20" s="119"/>
-      <c r="BB20" s="119"/>
-      <c r="BC20" s="119"/>
-      <c r="BD20" s="119"/>
-      <c r="BE20" s="119"/>
-      <c r="BF20" s="119"/>
-      <c r="BG20" s="119"/>
-      <c r="BH20" s="119"/>
-      <c r="BI20" s="119"/>
-      <c r="BJ20" s="119"/>
-      <c r="BK20" s="119"/>
-      <c r="BL20" s="119"/>
-      <c r="BM20" s="119"/>
-      <c r="BN20" s="119"/>
-      <c r="BO20" s="122"/>
-      <c r="BP20" s="123"/>
-      <c r="BQ20" s="119"/>
-      <c r="BR20" s="119"/>
-      <c r="BS20" s="119"/>
-      <c r="BT20" s="119"/>
-      <c r="BU20" s="119"/>
-      <c r="BV20" s="119"/>
-      <c r="BW20" s="119"/>
-      <c r="BX20" s="119"/>
-      <c r="BY20" s="119"/>
-      <c r="BZ20" s="119"/>
-      <c r="CA20" s="119"/>
-      <c r="CB20" s="119"/>
-      <c r="CC20" s="119"/>
-      <c r="CD20" s="119"/>
-      <c r="CE20" s="119"/>
-      <c r="CF20" s="119"/>
-      <c r="CG20" s="119"/>
-      <c r="CH20" s="119"/>
-      <c r="CI20" s="119"/>
-      <c r="CJ20" s="119"/>
-      <c r="CK20" s="119"/>
-      <c r="CL20" s="119"/>
-      <c r="CM20" s="119"/>
-      <c r="CN20" s="119"/>
-      <c r="CO20" s="119"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="95"/>
+      <c r="AJ20" s="95"/>
+      <c r="AK20" s="95"/>
+      <c r="AL20" s="95"/>
+      <c r="AM20" s="95"/>
+      <c r="AN20" s="95"/>
+      <c r="AO20" s="95"/>
+      <c r="AP20" s="95"/>
+      <c r="AQ20" s="95"/>
+      <c r="AR20" s="95"/>
+      <c r="AS20" s="95"/>
+      <c r="AT20" s="95"/>
+      <c r="AU20" s="95"/>
+      <c r="AV20" s="95"/>
+      <c r="AW20" s="95"/>
+      <c r="AX20" s="95"/>
+      <c r="AY20" s="95"/>
+      <c r="AZ20" s="95"/>
+      <c r="BA20" s="95"/>
+      <c r="BB20" s="95"/>
+      <c r="BC20" s="95"/>
+      <c r="BD20" s="95"/>
+      <c r="BE20" s="95"/>
+      <c r="BF20" s="95"/>
+      <c r="BG20" s="95"/>
+      <c r="BH20" s="95"/>
+      <c r="BI20" s="95"/>
+      <c r="BJ20" s="95"/>
+      <c r="BK20" s="95"/>
+      <c r="BL20" s="95"/>
+      <c r="BM20" s="95"/>
+      <c r="BN20" s="95"/>
+      <c r="BO20" s="98"/>
+      <c r="BP20" s="99"/>
+      <c r="BQ20" s="95"/>
+      <c r="BR20" s="95"/>
+      <c r="BS20" s="95"/>
+      <c r="BT20" s="95"/>
+      <c r="BU20" s="95"/>
+      <c r="BV20" s="95"/>
+      <c r="BW20" s="95"/>
+      <c r="BX20" s="95"/>
+      <c r="BY20" s="95"/>
+      <c r="BZ20" s="95"/>
+      <c r="CA20" s="95"/>
+      <c r="CB20" s="95"/>
+      <c r="CC20" s="95"/>
+      <c r="CD20" s="95"/>
+      <c r="CE20" s="95"/>
+      <c r="CF20" s="95"/>
+      <c r="CG20" s="95"/>
+      <c r="CH20" s="95"/>
+      <c r="CI20" s="95"/>
+      <c r="CJ20" s="95"/>
+      <c r="CK20" s="95"/>
+      <c r="CL20" s="95"/>
+      <c r="CM20" s="95"/>
+      <c r="CN20" s="95"/>
+      <c r="CO20" s="95"/>
     </row>
-    <row r="21" spans="1:93" s="118" customFormat="1">
-      <c r="A21" s="117"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="124" t="s">
+    <row r="21" spans="1:93" s="94" customFormat="1">
+      <c r="A21" s="93"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="125"/>
-      <c r="V21" s="121"/>
-      <c r="W21" s="119"/>
-      <c r="X21" s="119"/>
-      <c r="Y21" s="119"/>
-      <c r="Z21" s="119"/>
-      <c r="AA21" s="119"/>
-      <c r="AB21" s="119"/>
-      <c r="AC21" s="119"/>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="119"/>
-      <c r="AF21" s="119"/>
-      <c r="AG21" s="119"/>
-      <c r="AH21" s="119"/>
-      <c r="AI21" s="119"/>
-      <c r="AJ21" s="119"/>
-      <c r="AK21" s="119"/>
-      <c r="AL21" s="119"/>
-      <c r="AM21" s="119"/>
-      <c r="AN21" s="119"/>
-      <c r="AO21" s="119"/>
-      <c r="AP21" s="119"/>
-      <c r="AQ21" s="119"/>
-      <c r="AR21" s="119"/>
-      <c r="AS21" s="119"/>
-      <c r="AT21" s="119"/>
-      <c r="AU21" s="119"/>
-      <c r="AV21" s="119"/>
-      <c r="AW21" s="119"/>
-      <c r="AX21" s="119"/>
-      <c r="AY21" s="119"/>
-      <c r="AZ21" s="119"/>
-      <c r="BA21" s="119"/>
-      <c r="BB21" s="119"/>
-      <c r="BC21" s="119"/>
-      <c r="BD21" s="119"/>
-      <c r="BE21" s="119"/>
-      <c r="BF21" s="119"/>
-      <c r="BG21" s="119"/>
-      <c r="BH21" s="119"/>
-      <c r="BI21" s="119"/>
-      <c r="BJ21" s="119"/>
-      <c r="BK21" s="119"/>
-      <c r="BL21" s="119"/>
-      <c r="BM21" s="119"/>
-      <c r="BN21" s="119"/>
-      <c r="BO21" s="122"/>
-      <c r="BP21" s="123"/>
-      <c r="BQ21" s="119"/>
-      <c r="BR21" s="119"/>
-      <c r="BS21" s="119"/>
-      <c r="BT21" s="119"/>
-      <c r="BU21" s="119"/>
-      <c r="BV21" s="119"/>
-      <c r="BW21" s="119"/>
-      <c r="BX21" s="119"/>
-      <c r="BY21" s="119"/>
-      <c r="BZ21" s="119"/>
-      <c r="CA21" s="119"/>
-      <c r="CB21" s="119"/>
-      <c r="CC21" s="119"/>
-      <c r="CD21" s="119"/>
-      <c r="CE21" s="119"/>
-      <c r="CF21" s="119"/>
-      <c r="CG21" s="119"/>
-      <c r="CH21" s="119"/>
-      <c r="CI21" s="119"/>
-      <c r="CJ21" s="119"/>
-      <c r="CK21" s="119"/>
-      <c r="CL21" s="119"/>
-      <c r="CM21" s="119"/>
-      <c r="CN21" s="119"/>
-      <c r="CO21" s="119"/>
+      <c r="E21" s="101"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="95"/>
+      <c r="AL21" s="95"/>
+      <c r="AM21" s="95"/>
+      <c r="AN21" s="95"/>
+      <c r="AO21" s="95"/>
+      <c r="AP21" s="95"/>
+      <c r="AQ21" s="95"/>
+      <c r="AR21" s="95"/>
+      <c r="AS21" s="95"/>
+      <c r="AT21" s="95"/>
+      <c r="AU21" s="95"/>
+      <c r="AV21" s="95"/>
+      <c r="AW21" s="95"/>
+      <c r="AX21" s="95"/>
+      <c r="AY21" s="95"/>
+      <c r="AZ21" s="95"/>
+      <c r="BA21" s="95"/>
+      <c r="BB21" s="95"/>
+      <c r="BC21" s="95"/>
+      <c r="BD21" s="95"/>
+      <c r="BE21" s="95"/>
+      <c r="BF21" s="95"/>
+      <c r="BG21" s="95"/>
+      <c r="BH21" s="95"/>
+      <c r="BI21" s="95"/>
+      <c r="BJ21" s="95"/>
+      <c r="BK21" s="95"/>
+      <c r="BL21" s="95"/>
+      <c r="BM21" s="95"/>
+      <c r="BN21" s="95"/>
+      <c r="BO21" s="98"/>
+      <c r="BP21" s="99"/>
+      <c r="BQ21" s="95"/>
+      <c r="BR21" s="95"/>
+      <c r="BS21" s="95"/>
+      <c r="BT21" s="95"/>
+      <c r="BU21" s="95"/>
+      <c r="BV21" s="95"/>
+      <c r="BW21" s="95"/>
+      <c r="BX21" s="95"/>
+      <c r="BY21" s="95"/>
+      <c r="BZ21" s="95"/>
+      <c r="CA21" s="95"/>
+      <c r="CB21" s="95"/>
+      <c r="CC21" s="95"/>
+      <c r="CD21" s="95"/>
+      <c r="CE21" s="95"/>
+      <c r="CF21" s="95"/>
+      <c r="CG21" s="95"/>
+      <c r="CH21" s="95"/>
+      <c r="CI21" s="95"/>
+      <c r="CJ21" s="95"/>
+      <c r="CK21" s="95"/>
+      <c r="CL21" s="95"/>
+      <c r="CM21" s="95"/>
+      <c r="CN21" s="95"/>
+      <c r="CO21" s="95"/>
     </row>
-    <row r="22" spans="1:93" s="127" customFormat="1">
-      <c r="A22" s="126"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="128" t="s">
+    <row r="22" spans="1:93" s="103" customFormat="1">
+      <c r="A22" s="102"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="100"/>
+      <c r="AB22" s="100"/>
+      <c r="AC22" s="100"/>
+      <c r="AD22" s="100"/>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="100"/>
+      <c r="AH22" s="100"/>
+      <c r="AI22" s="100"/>
+      <c r="AJ22" s="100"/>
+      <c r="AK22" s="100"/>
+      <c r="AL22" s="100"/>
+      <c r="AM22" s="100"/>
+      <c r="AN22" s="100"/>
+      <c r="AO22" s="100"/>
+      <c r="AP22" s="100"/>
+      <c r="AQ22" s="100"/>
+      <c r="AR22" s="100"/>
+      <c r="AS22" s="100"/>
+      <c r="AT22" s="100"/>
+      <c r="AU22" s="100"/>
+      <c r="AV22" s="100"/>
+      <c r="AW22" s="100"/>
+      <c r="AX22" s="100"/>
+      <c r="AY22" s="100"/>
+      <c r="AZ22" s="100"/>
+      <c r="BA22" s="100"/>
+      <c r="BB22" s="100"/>
+      <c r="BC22" s="100"/>
+      <c r="BD22" s="100"/>
+      <c r="BE22" s="100"/>
+      <c r="BF22" s="100"/>
+      <c r="BG22" s="100"/>
+      <c r="BH22" s="100"/>
+      <c r="BI22" s="100"/>
+      <c r="BJ22" s="100"/>
+      <c r="BK22" s="100"/>
+      <c r="BL22" s="100"/>
+      <c r="BM22" s="100"/>
+      <c r="BN22" s="100"/>
+      <c r="BO22" s="95"/>
+      <c r="BP22" s="95"/>
+      <c r="BQ22" s="100"/>
+      <c r="BR22" s="100"/>
+      <c r="BS22" s="100"/>
+      <c r="BT22" s="100"/>
+      <c r="BU22" s="100"/>
+      <c r="BV22" s="100"/>
+      <c r="BW22" s="100"/>
+      <c r="BX22" s="100"/>
+      <c r="BY22" s="100"/>
+      <c r="BZ22" s="100"/>
+      <c r="CA22" s="100"/>
+      <c r="CB22" s="100"/>
+      <c r="CC22" s="100"/>
+      <c r="CD22" s="100"/>
+      <c r="CE22" s="100"/>
+      <c r="CF22" s="100"/>
+      <c r="CG22" s="100"/>
+      <c r="CH22" s="100"/>
+      <c r="CI22" s="100"/>
+      <c r="CJ22" s="100"/>
+      <c r="CK22" s="100"/>
+      <c r="CL22" s="100"/>
+      <c r="CM22" s="100"/>
+      <c r="CN22" s="100"/>
+      <c r="CO22" s="100"/>
+    </row>
+    <row r="23" spans="1:93" s="103" customFormat="1">
+      <c r="A23" s="102"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="100"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="100"/>
+      <c r="AB23" s="100"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="100"/>
+      <c r="AH23" s="100"/>
+      <c r="AI23" s="100"/>
+      <c r="AJ23" s="100"/>
+      <c r="AK23" s="100"/>
+      <c r="AL23" s="100"/>
+      <c r="AM23" s="100"/>
+      <c r="AN23" s="100"/>
+      <c r="AO23" s="100"/>
+      <c r="AP23" s="100"/>
+      <c r="AQ23" s="100"/>
+      <c r="AR23" s="100"/>
+      <c r="AS23" s="100"/>
+      <c r="AT23" s="100"/>
+      <c r="AU23" s="100"/>
+      <c r="AV23" s="100"/>
+      <c r="AW23" s="100"/>
+      <c r="AX23" s="100"/>
+      <c r="AY23" s="100"/>
+      <c r="AZ23" s="100"/>
+      <c r="BA23" s="100"/>
+      <c r="BB23" s="100"/>
+      <c r="BC23" s="100"/>
+      <c r="BD23" s="100"/>
+      <c r="BE23" s="100"/>
+      <c r="BF23" s="100"/>
+      <c r="BG23" s="100"/>
+      <c r="BH23" s="100"/>
+      <c r="BI23" s="100"/>
+      <c r="BJ23" s="100"/>
+      <c r="BK23" s="100"/>
+      <c r="BL23" s="100"/>
+      <c r="BM23" s="100"/>
+      <c r="BN23" s="100"/>
+      <c r="BO23" s="95"/>
+      <c r="BP23" s="100"/>
+      <c r="BQ23" s="100"/>
+      <c r="BR23" s="100"/>
+      <c r="BS23" s="100"/>
+      <c r="BT23" s="100"/>
+      <c r="BU23" s="100"/>
+      <c r="BV23" s="100"/>
+      <c r="BW23" s="100"/>
+      <c r="BX23" s="100"/>
+      <c r="BY23" s="100"/>
+      <c r="BZ23" s="100"/>
+      <c r="CA23" s="100"/>
+      <c r="CB23" s="100"/>
+      <c r="CC23" s="100"/>
+      <c r="CD23" s="100"/>
+      <c r="CE23" s="100"/>
+      <c r="CF23" s="100"/>
+      <c r="CG23" s="100"/>
+      <c r="CH23" s="100"/>
+      <c r="CI23" s="100"/>
+      <c r="CJ23" s="100"/>
+      <c r="CK23" s="100"/>
+      <c r="CL23" s="100"/>
+      <c r="CM23" s="100"/>
+      <c r="CN23" s="100"/>
+      <c r="CO23" s="100"/>
+    </row>
+    <row r="24" spans="1:93" s="94" customFormat="1">
+      <c r="A24" s="93"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="130"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="124"/>
-      <c r="X22" s="124"/>
-      <c r="Y22" s="124"/>
-      <c r="Z22" s="124"/>
-      <c r="AA22" s="124"/>
-      <c r="AB22" s="124"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="124"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="124"/>
-      <c r="AI22" s="124"/>
-      <c r="AJ22" s="124"/>
-      <c r="AK22" s="124"/>
-      <c r="AL22" s="124"/>
-      <c r="AM22" s="124"/>
-      <c r="AN22" s="124"/>
-      <c r="AO22" s="124"/>
-      <c r="AP22" s="124"/>
-      <c r="AQ22" s="124"/>
-      <c r="AR22" s="124"/>
-      <c r="AS22" s="124"/>
-      <c r="AT22" s="124"/>
-      <c r="AU22" s="124"/>
-      <c r="AV22" s="124"/>
-      <c r="AW22" s="124"/>
-      <c r="AX22" s="124"/>
-      <c r="AY22" s="124"/>
-      <c r="AZ22" s="124"/>
-      <c r="BA22" s="124"/>
-      <c r="BB22" s="124"/>
-      <c r="BC22" s="124"/>
-      <c r="BD22" s="124"/>
-      <c r="BE22" s="124"/>
-      <c r="BF22" s="124"/>
-      <c r="BG22" s="124"/>
-      <c r="BH22" s="124"/>
-      <c r="BI22" s="124"/>
-      <c r="BJ22" s="124"/>
-      <c r="BK22" s="124"/>
-      <c r="BL22" s="124"/>
-      <c r="BM22" s="124"/>
-      <c r="BN22" s="124"/>
-      <c r="BO22" s="119"/>
-      <c r="BP22" s="119"/>
-      <c r="BQ22" s="124"/>
-      <c r="BR22" s="124"/>
-      <c r="BS22" s="124"/>
-      <c r="BT22" s="124"/>
-      <c r="BU22" s="124"/>
-      <c r="BV22" s="124"/>
-      <c r="BW22" s="124"/>
-      <c r="BX22" s="124"/>
-      <c r="BY22" s="124"/>
-      <c r="BZ22" s="124"/>
-      <c r="CA22" s="124"/>
-      <c r="CB22" s="124"/>
-      <c r="CC22" s="124"/>
-      <c r="CD22" s="124"/>
-      <c r="CE22" s="124"/>
-      <c r="CF22" s="124"/>
-      <c r="CG22" s="124"/>
-      <c r="CH22" s="124"/>
-      <c r="CI22" s="124"/>
-      <c r="CJ22" s="124"/>
-      <c r="CK22" s="124"/>
-      <c r="CL22" s="124"/>
-      <c r="CM22" s="124"/>
-      <c r="CN22" s="124"/>
-      <c r="CO22" s="124"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="107"/>
+      <c r="V24" s="97"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="95"/>
+      <c r="AJ24" s="95"/>
+      <c r="AK24" s="95"/>
+      <c r="AL24" s="95"/>
+      <c r="AM24" s="95"/>
+      <c r="AN24" s="95"/>
+      <c r="AO24" s="95"/>
+      <c r="AP24" s="95"/>
+      <c r="AQ24" s="95"/>
+      <c r="AR24" s="95"/>
+      <c r="AS24" s="95"/>
+      <c r="AT24" s="95"/>
+      <c r="AU24" s="95"/>
+      <c r="AV24" s="95"/>
+      <c r="AW24" s="95"/>
+      <c r="AX24" s="95"/>
+      <c r="AY24" s="95"/>
+      <c r="AZ24" s="95"/>
+      <c r="BA24" s="95"/>
+      <c r="BB24" s="95"/>
+      <c r="BC24" s="95"/>
+      <c r="BD24" s="95"/>
+      <c r="BE24" s="95"/>
+      <c r="BF24" s="95"/>
+      <c r="BG24" s="95"/>
+      <c r="BH24" s="95"/>
+      <c r="BI24" s="95"/>
+      <c r="BJ24" s="95"/>
+      <c r="BK24" s="95"/>
+      <c r="BL24" s="95"/>
+      <c r="BM24" s="100"/>
+      <c r="BN24" s="100"/>
+      <c r="BO24" s="100"/>
+      <c r="BP24" s="95"/>
+      <c r="BQ24" s="95"/>
+      <c r="BR24" s="95"/>
+      <c r="BS24" s="95"/>
+      <c r="BT24" s="95"/>
+      <c r="BU24" s="95"/>
+      <c r="BV24" s="95"/>
+      <c r="BW24" s="95"/>
+      <c r="BX24" s="95"/>
+      <c r="BY24" s="95"/>
+      <c r="BZ24" s="95"/>
+      <c r="CA24" s="95"/>
+      <c r="CB24" s="95"/>
+      <c r="CC24" s="95"/>
+      <c r="CD24" s="95"/>
+      <c r="CE24" s="95"/>
+      <c r="CF24" s="95"/>
+      <c r="CG24" s="95"/>
+      <c r="CH24" s="95"/>
+      <c r="CI24" s="95"/>
+      <c r="CJ24" s="95"/>
+      <c r="CK24" s="95"/>
+      <c r="CL24" s="95"/>
+      <c r="CM24" s="95"/>
+      <c r="CN24" s="95"/>
+      <c r="CO24" s="95"/>
     </row>
-    <row r="23" spans="1:93" s="127" customFormat="1">
-      <c r="A23" s="126"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="124" t="s">
-        <v>60</v>
+    <row r="25" spans="1:93" s="94" customFormat="1">
+      <c r="A25" s="93"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100" t="s">
+        <v>61</v>
       </c>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="124"/>
-      <c r="X23" s="124"/>
-      <c r="Y23" s="124"/>
-      <c r="Z23" s="124"/>
-      <c r="AA23" s="124"/>
-      <c r="AB23" s="124"/>
-      <c r="AC23" s="124"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="124"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="124"/>
-      <c r="AJ23" s="124"/>
-      <c r="AK23" s="124"/>
-      <c r="AL23" s="124"/>
-      <c r="AM23" s="124"/>
-      <c r="AN23" s="124"/>
-      <c r="AO23" s="124"/>
-      <c r="AP23" s="124"/>
-      <c r="AQ23" s="124"/>
-      <c r="AR23" s="124"/>
-      <c r="AS23" s="124"/>
-      <c r="AT23" s="124"/>
-      <c r="AU23" s="124"/>
-      <c r="AV23" s="124"/>
-      <c r="AW23" s="124"/>
-      <c r="AX23" s="124"/>
-      <c r="AY23" s="124"/>
-      <c r="AZ23" s="124"/>
-      <c r="BA23" s="124"/>
-      <c r="BB23" s="124"/>
-      <c r="BC23" s="124"/>
-      <c r="BD23" s="124"/>
-      <c r="BE23" s="124"/>
-      <c r="BF23" s="124"/>
-      <c r="BG23" s="124"/>
-      <c r="BH23" s="124"/>
-      <c r="BI23" s="124"/>
-      <c r="BJ23" s="124"/>
-      <c r="BK23" s="124"/>
-      <c r="BL23" s="124"/>
-      <c r="BM23" s="124"/>
-      <c r="BN23" s="124"/>
-      <c r="BO23" s="119"/>
-      <c r="BP23" s="124"/>
-      <c r="BQ23" s="124"/>
-      <c r="BR23" s="124"/>
-      <c r="BS23" s="124"/>
-      <c r="BT23" s="124"/>
-      <c r="BU23" s="124"/>
-      <c r="BV23" s="124"/>
-      <c r="BW23" s="124"/>
-      <c r="BX23" s="124"/>
-      <c r="BY23" s="124"/>
-      <c r="BZ23" s="124"/>
-      <c r="CA23" s="124"/>
-      <c r="CB23" s="124"/>
-      <c r="CC23" s="124"/>
-      <c r="CD23" s="124"/>
-      <c r="CE23" s="124"/>
-      <c r="CF23" s="124"/>
-      <c r="CG23" s="124"/>
-      <c r="CH23" s="124"/>
-      <c r="CI23" s="124"/>
-      <c r="CJ23" s="124"/>
-      <c r="CK23" s="124"/>
-      <c r="CL23" s="124"/>
-      <c r="CM23" s="124"/>
-      <c r="CN23" s="124"/>
-      <c r="CO23" s="124"/>
+      <c r="E25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="97"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="95"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="95"/>
+      <c r="AJ25" s="95"/>
+      <c r="AK25" s="95"/>
+      <c r="AL25" s="95"/>
+      <c r="AM25" s="95"/>
+      <c r="AN25" s="95"/>
+      <c r="AO25" s="95"/>
+      <c r="AP25" s="95"/>
+      <c r="AQ25" s="95"/>
+      <c r="AR25" s="95"/>
+      <c r="AS25" s="95"/>
+      <c r="AT25" s="95"/>
+      <c r="AU25" s="95"/>
+      <c r="AV25" s="95"/>
+      <c r="AW25" s="95"/>
+      <c r="AX25" s="95"/>
+      <c r="AY25" s="95"/>
+      <c r="AZ25" s="95"/>
+      <c r="BA25" s="95"/>
+      <c r="BB25" s="95"/>
+      <c r="BC25" s="95"/>
+      <c r="BD25" s="95"/>
+      <c r="BE25" s="95"/>
+      <c r="BF25" s="95"/>
+      <c r="BG25" s="95"/>
+      <c r="BH25" s="95"/>
+      <c r="BI25" s="95"/>
+      <c r="BJ25" s="95"/>
+      <c r="BK25" s="95"/>
+      <c r="BL25" s="95"/>
+      <c r="BM25" s="95"/>
+      <c r="BN25" s="95"/>
+      <c r="BO25" s="109"/>
+      <c r="BP25" s="95"/>
+      <c r="BQ25" s="95"/>
+      <c r="BR25" s="95"/>
+      <c r="BS25" s="95"/>
+      <c r="BT25" s="95"/>
+      <c r="BU25" s="95"/>
+      <c r="BV25" s="95"/>
+      <c r="BW25" s="95"/>
+      <c r="BX25" s="95"/>
+      <c r="BY25" s="95"/>
+      <c r="BZ25" s="95"/>
+      <c r="CA25" s="95"/>
+      <c r="CB25" s="95"/>
+      <c r="CC25" s="95"/>
+      <c r="CD25" s="95"/>
+      <c r="CE25" s="95"/>
+      <c r="CF25" s="95"/>
+      <c r="CG25" s="95"/>
+      <c r="CH25" s="95"/>
+      <c r="CI25" s="95"/>
+      <c r="CJ25" s="95"/>
+      <c r="CK25" s="95"/>
+      <c r="CL25" s="95"/>
+      <c r="CM25" s="95"/>
+      <c r="CN25" s="95"/>
+      <c r="CO25" s="95"/>
     </row>
-    <row r="24" spans="1:93" s="118" customFormat="1">
-      <c r="A24" s="117"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="128" t="s">
+    <row r="26" spans="1:93" s="94" customFormat="1">
+      <c r="A26" s="93"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="130"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="130"/>
-      <c r="O24" s="130"/>
-      <c r="P24" s="130"/>
-      <c r="Q24" s="130"/>
-      <c r="R24" s="130"/>
-      <c r="S24" s="131"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="119"/>
-      <c r="X24" s="119"/>
-      <c r="Y24" s="119"/>
-      <c r="Z24" s="119"/>
-      <c r="AA24" s="119"/>
-      <c r="AB24" s="119"/>
-      <c r="AC24" s="119"/>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="119"/>
-      <c r="AF24" s="119"/>
-      <c r="AG24" s="119"/>
-      <c r="AH24" s="119"/>
-      <c r="AI24" s="119"/>
-      <c r="AJ24" s="119"/>
-      <c r="AK24" s="119"/>
-      <c r="AL24" s="119"/>
-      <c r="AM24" s="119"/>
-      <c r="AN24" s="119"/>
-      <c r="AO24" s="119"/>
-      <c r="AP24" s="119"/>
-      <c r="AQ24" s="119"/>
-      <c r="AR24" s="119"/>
-      <c r="AS24" s="119"/>
-      <c r="AT24" s="119"/>
-      <c r="AU24" s="119"/>
-      <c r="AV24" s="119"/>
-      <c r="AW24" s="119"/>
-      <c r="AX24" s="119"/>
-      <c r="AY24" s="119"/>
-      <c r="AZ24" s="119"/>
-      <c r="BA24" s="119"/>
-      <c r="BB24" s="119"/>
-      <c r="BC24" s="119"/>
-      <c r="BD24" s="119"/>
-      <c r="BE24" s="119"/>
-      <c r="BF24" s="119"/>
-      <c r="BG24" s="119"/>
-      <c r="BH24" s="119"/>
-      <c r="BI24" s="119"/>
-      <c r="BJ24" s="119"/>
-      <c r="BK24" s="119"/>
-      <c r="BL24" s="119"/>
-      <c r="BM24" s="124"/>
-      <c r="BN24" s="124"/>
-      <c r="BO24" s="124"/>
-      <c r="BP24" s="119"/>
-      <c r="BQ24" s="119"/>
-      <c r="BR24" s="119"/>
-      <c r="BS24" s="119"/>
-      <c r="BT24" s="119"/>
-      <c r="BU24" s="119"/>
-      <c r="BV24" s="119"/>
-      <c r="BW24" s="119"/>
-      <c r="BX24" s="119"/>
-      <c r="BY24" s="119"/>
-      <c r="BZ24" s="119"/>
-      <c r="CA24" s="119"/>
-      <c r="CB24" s="119"/>
-      <c r="CC24" s="119"/>
-      <c r="CD24" s="119"/>
-      <c r="CE24" s="119"/>
-      <c r="CF24" s="119"/>
-      <c r="CG24" s="119"/>
-      <c r="CH24" s="119"/>
-      <c r="CI24" s="119"/>
-      <c r="CJ24" s="119"/>
-      <c r="CK24" s="119"/>
-      <c r="CL24" s="119"/>
-      <c r="CM24" s="119"/>
-      <c r="CN24" s="119"/>
-      <c r="CO24" s="119"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="97"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="95"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="95"/>
+      <c r="AJ26" s="95"/>
+      <c r="AK26" s="95"/>
+      <c r="AL26" s="95"/>
+      <c r="AM26" s="95"/>
+      <c r="AN26" s="95"/>
+      <c r="AO26" s="95"/>
+      <c r="AP26" s="95"/>
+      <c r="AQ26" s="95"/>
+      <c r="AR26" s="95"/>
+      <c r="AS26" s="95"/>
+      <c r="AT26" s="95"/>
+      <c r="AU26" s="95"/>
+      <c r="AV26" s="95"/>
+      <c r="AW26" s="95"/>
+      <c r="AX26" s="95"/>
+      <c r="AY26" s="95"/>
+      <c r="AZ26" s="95"/>
+      <c r="BA26" s="95"/>
+      <c r="BB26" s="95"/>
+      <c r="BC26" s="95"/>
+      <c r="BD26" s="95"/>
+      <c r="BE26" s="95"/>
+      <c r="BF26" s="95"/>
+      <c r="BG26" s="95"/>
+      <c r="BH26" s="95"/>
+      <c r="BI26" s="95"/>
+      <c r="BJ26" s="95"/>
+      <c r="BK26" s="95"/>
+      <c r="BL26" s="95"/>
+      <c r="BM26" s="95"/>
+      <c r="BN26" s="95"/>
+      <c r="BO26" s="95"/>
+      <c r="BP26" s="95"/>
+      <c r="BQ26" s="95"/>
+      <c r="BR26" s="95"/>
+      <c r="BS26" s="95"/>
+      <c r="BT26" s="95"/>
+      <c r="BU26" s="95"/>
+      <c r="BV26" s="95"/>
+      <c r="BW26" s="95"/>
+      <c r="BX26" s="95"/>
+      <c r="BY26" s="95"/>
+      <c r="BZ26" s="95"/>
+      <c r="CA26" s="95"/>
+      <c r="CB26" s="95"/>
+      <c r="CC26" s="95"/>
+      <c r="CD26" s="95"/>
+      <c r="CE26" s="95"/>
+      <c r="CF26" s="95"/>
+      <c r="CG26" s="95"/>
+      <c r="CH26" s="95"/>
+      <c r="CI26" s="95"/>
+      <c r="CJ26" s="95"/>
+      <c r="CK26" s="95"/>
+      <c r="CL26" s="95"/>
+      <c r="CM26" s="95"/>
+      <c r="CN26" s="95"/>
+      <c r="CO26" s="95"/>
     </row>
-    <row r="25" spans="1:93" s="118" customFormat="1">
-      <c r="A25" s="117"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="119"/>
-      <c r="T25" s="119"/>
-      <c r="U25" s="119"/>
-      <c r="V25" s="121"/>
-      <c r="W25" s="119"/>
-      <c r="X25" s="119"/>
-      <c r="Y25" s="119"/>
-      <c r="Z25" s="119"/>
-      <c r="AA25" s="119"/>
-      <c r="AB25" s="119"/>
-      <c r="AC25" s="119"/>
-      <c r="AD25" s="119"/>
-      <c r="AE25" s="119"/>
-      <c r="AF25" s="119"/>
-      <c r="AG25" s="119"/>
-      <c r="AH25" s="119"/>
-      <c r="AI25" s="119"/>
-      <c r="AJ25" s="119"/>
-      <c r="AK25" s="119"/>
-      <c r="AL25" s="119"/>
-      <c r="AM25" s="119"/>
-      <c r="AN25" s="119"/>
-      <c r="AO25" s="119"/>
-      <c r="AP25" s="119"/>
-      <c r="AQ25" s="119"/>
-      <c r="AR25" s="119"/>
-      <c r="AS25" s="119"/>
-      <c r="AT25" s="119"/>
-      <c r="AU25" s="119"/>
-      <c r="AV25" s="119"/>
-      <c r="AW25" s="119"/>
-      <c r="AX25" s="119"/>
-      <c r="AY25" s="119"/>
-      <c r="AZ25" s="119"/>
-      <c r="BA25" s="119"/>
-      <c r="BB25" s="119"/>
-      <c r="BC25" s="119"/>
-      <c r="BD25" s="119"/>
-      <c r="BE25" s="119"/>
-      <c r="BF25" s="119"/>
-      <c r="BG25" s="119"/>
-      <c r="BH25" s="119"/>
-      <c r="BI25" s="119"/>
-      <c r="BJ25" s="119"/>
-      <c r="BK25" s="119"/>
-      <c r="BL25" s="119"/>
-      <c r="BM25" s="119"/>
-      <c r="BN25" s="119"/>
-      <c r="BO25" s="133"/>
-      <c r="BP25" s="119"/>
-      <c r="BQ25" s="119"/>
-      <c r="BR25" s="119"/>
-      <c r="BS25" s="119"/>
-      <c r="BT25" s="119"/>
-      <c r="BU25" s="119"/>
-      <c r="BV25" s="119"/>
-      <c r="BW25" s="119"/>
-      <c r="BX25" s="119"/>
-      <c r="BY25" s="119"/>
-      <c r="BZ25" s="119"/>
-      <c r="CA25" s="119"/>
-      <c r="CB25" s="119"/>
-      <c r="CC25" s="119"/>
-      <c r="CD25" s="119"/>
-      <c r="CE25" s="119"/>
-      <c r="CF25" s="119"/>
-      <c r="CG25" s="119"/>
-      <c r="CH25" s="119"/>
-      <c r="CI25" s="119"/>
-      <c r="CJ25" s="119"/>
-      <c r="CK25" s="119"/>
-      <c r="CL25" s="119"/>
-      <c r="CM25" s="119"/>
-      <c r="CN25" s="119"/>
-      <c r="CO25" s="119"/>
-    </row>
-    <row r="26" spans="1:93" s="118" customFormat="1">
-      <c r="A26" s="117"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="128" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="119"/>
-      <c r="X26" s="119"/>
-      <c r="Y26" s="119"/>
-      <c r="Z26" s="119"/>
-      <c r="AA26" s="119"/>
-      <c r="AB26" s="119"/>
-      <c r="AC26" s="119"/>
-      <c r="AD26" s="119"/>
-      <c r="AE26" s="119"/>
-      <c r="AF26" s="119"/>
-      <c r="AG26" s="119"/>
-      <c r="AH26" s="119"/>
-      <c r="AI26" s="119"/>
-      <c r="AJ26" s="119"/>
-      <c r="AK26" s="119"/>
-      <c r="AL26" s="119"/>
-      <c r="AM26" s="119"/>
-      <c r="AN26" s="119"/>
-      <c r="AO26" s="119"/>
-      <c r="AP26" s="119"/>
-      <c r="AQ26" s="119"/>
-      <c r="AR26" s="119"/>
-      <c r="AS26" s="119"/>
-      <c r="AT26" s="119"/>
-      <c r="AU26" s="119"/>
-      <c r="AV26" s="119"/>
-      <c r="AW26" s="119"/>
-      <c r="AX26" s="119"/>
-      <c r="AY26" s="119"/>
-      <c r="AZ26" s="119"/>
-      <c r="BA26" s="119"/>
-      <c r="BB26" s="119"/>
-      <c r="BC26" s="119"/>
-      <c r="BD26" s="119"/>
-      <c r="BE26" s="119"/>
-      <c r="BF26" s="119"/>
-      <c r="BG26" s="119"/>
-      <c r="BH26" s="119"/>
-      <c r="BI26" s="119"/>
-      <c r="BJ26" s="119"/>
-      <c r="BK26" s="119"/>
-      <c r="BL26" s="119"/>
-      <c r="BM26" s="119"/>
-      <c r="BN26" s="119"/>
-      <c r="BO26" s="119"/>
-      <c r="BP26" s="119"/>
-      <c r="BQ26" s="119"/>
-      <c r="BR26" s="119"/>
-      <c r="BS26" s="119"/>
-      <c r="BT26" s="119"/>
-      <c r="BU26" s="119"/>
-      <c r="BV26" s="119"/>
-      <c r="BW26" s="119"/>
-      <c r="BX26" s="119"/>
-      <c r="BY26" s="119"/>
-      <c r="BZ26" s="119"/>
-      <c r="CA26" s="119"/>
-      <c r="CB26" s="119"/>
-      <c r="CC26" s="119"/>
-      <c r="CD26" s="119"/>
-      <c r="CE26" s="119"/>
-      <c r="CF26" s="119"/>
-      <c r="CG26" s="119"/>
-      <c r="CH26" s="119"/>
-      <c r="CI26" s="119"/>
-      <c r="CJ26" s="119"/>
-      <c r="CK26" s="119"/>
-      <c r="CL26" s="119"/>
-      <c r="CM26" s="119"/>
-      <c r="CN26" s="119"/>
-      <c r="CO26" s="119"/>
-    </row>
-    <row r="27" spans="1:93" s="118" customFormat="1">
-      <c r="A27" s="117"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="119"/>
-      <c r="T27" s="119"/>
-      <c r="U27" s="119"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="119"/>
-      <c r="X27" s="119"/>
-      <c r="Y27" s="119"/>
-      <c r="Z27" s="119"/>
-      <c r="AA27" s="119"/>
-      <c r="AB27" s="119"/>
-      <c r="AC27" s="119"/>
-      <c r="AD27" s="119"/>
-      <c r="AE27" s="119"/>
-      <c r="AF27" s="119"/>
-      <c r="AG27" s="119"/>
-      <c r="AH27" s="119"/>
-      <c r="AI27" s="119"/>
-      <c r="AJ27" s="119"/>
-      <c r="AK27" s="119"/>
-      <c r="AL27" s="119"/>
-      <c r="AM27" s="119"/>
-      <c r="AN27" s="119"/>
-      <c r="AO27" s="119"/>
-      <c r="AP27" s="119"/>
-      <c r="AQ27" s="119"/>
-      <c r="AR27" s="119"/>
-      <c r="AS27" s="119"/>
-      <c r="AT27" s="119"/>
-      <c r="AU27" s="119"/>
-      <c r="AV27" s="119"/>
-      <c r="AW27" s="119"/>
-      <c r="AX27" s="119"/>
-      <c r="AY27" s="119"/>
-      <c r="AZ27" s="119"/>
-      <c r="BA27" s="119"/>
-      <c r="BB27" s="119"/>
-      <c r="BC27" s="119"/>
-      <c r="BD27" s="119"/>
-      <c r="BE27" s="119"/>
-      <c r="BF27" s="119"/>
-      <c r="BG27" s="119"/>
-      <c r="BH27" s="119"/>
-      <c r="BI27" s="119"/>
-      <c r="BJ27" s="119"/>
-      <c r="BK27" s="119"/>
-      <c r="BL27" s="119"/>
-      <c r="BM27" s="119"/>
-      <c r="BN27" s="119"/>
-      <c r="BO27" s="122"/>
-      <c r="BP27" s="123"/>
-      <c r="BQ27" s="119"/>
-      <c r="BR27" s="119"/>
-      <c r="BS27" s="119"/>
-      <c r="BT27" s="119"/>
-      <c r="BU27" s="119"/>
-      <c r="BV27" s="119"/>
-      <c r="BW27" s="119"/>
-      <c r="BX27" s="119"/>
-      <c r="BY27" s="119"/>
-      <c r="BZ27" s="119"/>
-      <c r="CA27" s="119"/>
-      <c r="CB27" s="119"/>
-      <c r="CC27" s="119"/>
-      <c r="CD27" s="119"/>
-      <c r="CE27" s="119"/>
-      <c r="CF27" s="119"/>
-      <c r="CG27" s="119"/>
-      <c r="CH27" s="119"/>
-      <c r="CI27" s="119"/>
-      <c r="CJ27" s="119"/>
-      <c r="CK27" s="119"/>
-      <c r="CL27" s="119"/>
-      <c r="CM27" s="119"/>
-      <c r="CN27" s="119"/>
-      <c r="CO27" s="119"/>
+    <row r="27" spans="1:93" s="94" customFormat="1">
+      <c r="A27" s="93"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="97"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="95"/>
+      <c r="AF27" s="95"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="95"/>
+      <c r="AJ27" s="95"/>
+      <c r="AK27" s="95"/>
+      <c r="AL27" s="95"/>
+      <c r="AM27" s="95"/>
+      <c r="AN27" s="95"/>
+      <c r="AO27" s="95"/>
+      <c r="AP27" s="95"/>
+      <c r="AQ27" s="95"/>
+      <c r="AR27" s="95"/>
+      <c r="AS27" s="95"/>
+      <c r="AT27" s="95"/>
+      <c r="AU27" s="95"/>
+      <c r="AV27" s="95"/>
+      <c r="AW27" s="95"/>
+      <c r="AX27" s="95"/>
+      <c r="AY27" s="95"/>
+      <c r="AZ27" s="95"/>
+      <c r="BA27" s="95"/>
+      <c r="BB27" s="95"/>
+      <c r="BC27" s="95"/>
+      <c r="BD27" s="95"/>
+      <c r="BE27" s="95"/>
+      <c r="BF27" s="95"/>
+      <c r="BG27" s="95"/>
+      <c r="BH27" s="95"/>
+      <c r="BI27" s="95"/>
+      <c r="BJ27" s="95"/>
+      <c r="BK27" s="95"/>
+      <c r="BL27" s="95"/>
+      <c r="BM27" s="95"/>
+      <c r="BN27" s="95"/>
+      <c r="BO27" s="98"/>
+      <c r="BP27" s="99"/>
+      <c r="BQ27" s="95"/>
+      <c r="BR27" s="95"/>
+      <c r="BS27" s="95"/>
+      <c r="BT27" s="95"/>
+      <c r="BU27" s="95"/>
+      <c r="BV27" s="95"/>
+      <c r="BW27" s="95"/>
+      <c r="BX27" s="95"/>
+      <c r="BY27" s="95"/>
+      <c r="BZ27" s="95"/>
+      <c r="CA27" s="95"/>
+      <c r="CB27" s="95"/>
+      <c r="CC27" s="95"/>
+      <c r="CD27" s="95"/>
+      <c r="CE27" s="95"/>
+      <c r="CF27" s="95"/>
+      <c r="CG27" s="95"/>
+      <c r="CH27" s="95"/>
+      <c r="CI27" s="95"/>
+      <c r="CJ27" s="95"/>
+      <c r="CK27" s="95"/>
+      <c r="CL27" s="95"/>
+      <c r="CM27" s="95"/>
+      <c r="CN27" s="95"/>
+      <c r="CO27" s="95"/>
     </row>
     <row r="28" spans="1:93">
       <c r="A28" s="15"/>
@@ -15588,24 +15421,24 @@
       <c r="A29" s="15"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="93" t="s">
+      <c r="D29" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="100"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="115"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="16"/>
@@ -15613,7 +15446,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -15687,22 +15520,22 @@
       <c r="A30" s="15"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="101"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="116"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="16"/>
@@ -17163,7 +16996,7 @@
   <sheetData>
     <row r="1" spans="1:93">
       <c r="A1" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -17452,10 +17285,10 @@
       <c r="A4" s="15"/>
       <c r="B4" s="1"/>
       <c r="D4" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V4" s="16"/>
       <c r="W4" s="1"/>
@@ -17534,7 +17367,7 @@
       <c r="A5" s="17"/>
       <c r="B5" s="1"/>
       <c r="D5" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
@@ -17630,10 +17463,10 @@
       <c r="A6" s="15"/>
       <c r="B6" s="1"/>
       <c r="D6" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V6" s="16"/>
       <c r="W6" s="1"/>
@@ -17712,7 +17545,7 @@
       <c r="A7" s="17"/>
       <c r="B7" s="1"/>
       <c r="D7" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -17808,10 +17641,10 @@
       <c r="A8" s="15"/>
       <c r="B8" s="1"/>
       <c r="D8" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V8" s="16"/>
       <c r="W8" s="1"/>
@@ -17890,7 +17723,7 @@
       <c r="A9" s="17"/>
       <c r="B9" s="1"/>
       <c r="D9" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
@@ -18066,7 +17899,7 @@
       <c r="A11" s="17"/>
       <c r="B11" s="1"/>
       <c r="D11" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -18258,7 +18091,7 @@
       <c r="A13" s="15"/>
       <c r="B13" s="1"/>
       <c r="D13" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -18352,10 +18185,10 @@
       <c r="A14" s="15"/>
       <c r="B14" s="8"/>
       <c r="D14" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -18445,7 +18278,7 @@
       <c r="A15" s="15"/>
       <c r="B15" s="1"/>
       <c r="D15" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
@@ -18468,7 +18301,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
@@ -18543,10 +18376,10 @@
       <c r="A16" s="15"/>
       <c r="B16" s="8"/>
       <c r="D16" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -18636,7 +18469,7 @@
       <c r="A17" s="15"/>
       <c r="B17" s="1"/>
       <c r="D17" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
@@ -18732,10 +18565,10 @@
       <c r="A18" s="15"/>
       <c r="B18" s="8"/>
       <c r="D18" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -18825,7 +18658,7 @@
       <c r="A19" s="15"/>
       <c r="B19" s="1"/>
       <c r="D19" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -18921,10 +18754,10 @@
       <c r="A20" s="15"/>
       <c r="B20" s="8"/>
       <c r="D20" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -19014,7 +18847,7 @@
       <c r="A21" s="15"/>
       <c r="B21" s="1"/>
       <c r="D21" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -19110,10 +18943,10 @@
       <c r="A22" s="15"/>
       <c r="C22" s="1"/>
       <c r="D22" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -19203,7 +19036,7 @@
       <c r="A23" s="15"/>
       <c r="C23" s="1"/>
       <c r="D23" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
@@ -19299,10 +19132,10 @@
       <c r="A24" s="15"/>
       <c r="C24" s="1"/>
       <c r="D24" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -19397,7 +19230,7 @@
       <c r="A25" s="15"/>
       <c r="C25" s="1"/>
       <c r="E25" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -19419,7 +19252,7 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
@@ -19494,10 +19327,10 @@
       <c r="A26" s="15"/>
       <c r="C26" s="1"/>
       <c r="D26" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -19592,7 +19425,7 @@
       <c r="A27" s="15"/>
       <c r="C27" s="1"/>
       <c r="E27" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -19614,7 +19447,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
@@ -19783,31 +19616,31 @@
       <c r="A29" s="15"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="93" t="s">
-        <v>91</v>
+      <c r="D29" s="110" t="s">
+        <v>90</v>
       </c>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="100"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="115"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="16"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
@@ -19882,22 +19715,22 @@
       <c r="A30" s="15"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="101"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="116"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="16"/>
@@ -21357,7 +21190,7 @@
   <sheetData>
     <row r="1" spans="1:93">
       <c r="A1" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -21646,10 +21479,10 @@
       <c r="A4" s="15"/>
       <c r="B4" s="1"/>
       <c r="C4" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -21745,7 +21578,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
@@ -22219,24 +22052,24 @@
       <c r="A10" s="15"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="93" t="s">
-        <v>140</v>
+      <c r="D10" s="110" t="s">
+        <v>139</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="100"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="115"/>
       <c r="T10" s="1"/>
       <c r="V10" s="16"/>
       <c r="W10" s="1"/>
@@ -22315,22 +22148,22 @@
       <c r="A11" s="17"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="101"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="116"/>
       <c r="T11" s="1"/>
       <c r="U11"/>
       <c r="V11" s="18"/>
@@ -22511,7 +22344,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -22529,7 +22362,7 @@
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
@@ -22699,7 +22532,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -22890,11 +22723,11 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F17" s="62"/>
       <c r="G17" s="61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
@@ -22990,11 +22823,11 @@
       <c r="C18" s="1"/>
       <c r="D18" s="8"/>
       <c r="E18" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="51"/>
       <c r="G18" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
@@ -23005,7 +22838,7 @@
       <c r="N18" s="52"/>
       <c r="O18" s="51"/>
       <c r="P18" s="50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="52"/>
       <c r="R18" s="51"/>
@@ -23091,11 +22924,11 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" s="54"/>
       <c r="G19" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
@@ -23106,7 +22939,7 @@
       <c r="N19" s="39"/>
       <c r="O19" s="54"/>
       <c r="P19" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="39"/>
       <c r="R19" s="54"/>
@@ -23192,11 +23025,11 @@
       <c r="C20" s="1"/>
       <c r="D20" s="8"/>
       <c r="E20" s="53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" s="54"/>
       <c r="G20" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
@@ -23207,7 +23040,7 @@
       <c r="N20" s="39"/>
       <c r="O20" s="54"/>
       <c r="P20" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="39"/>
       <c r="R20" s="54"/>
@@ -23293,11 +23126,11 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
@@ -23308,7 +23141,7 @@
       <c r="N21" s="39"/>
       <c r="O21" s="54"/>
       <c r="P21" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="39"/>
       <c r="R21" s="54"/>
@@ -23394,11 +23227,11 @@
       <c r="C22" s="1"/>
       <c r="D22" s="8"/>
       <c r="E22" s="53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F22" s="54"/>
       <c r="G22" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
@@ -23409,7 +23242,7 @@
       <c r="N22" s="39"/>
       <c r="O22" s="54"/>
       <c r="P22" s="55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="39"/>
       <c r="R22" s="54"/>
@@ -23495,11 +23328,11 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F23" s="54"/>
       <c r="G23" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="39"/>
@@ -23510,7 +23343,7 @@
       <c r="N23" s="39"/>
       <c r="O23" s="54"/>
       <c r="P23" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="39"/>
       <c r="R23" s="54"/>
@@ -23596,11 +23429,11 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="39"/>
@@ -23611,7 +23444,7 @@
       <c r="N24" s="39"/>
       <c r="O24" s="54"/>
       <c r="P24" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="39"/>
       <c r="R24" s="54"/>
@@ -23696,11 +23529,11 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="E25" s="53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" s="54"/>
       <c r="G25" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="39"/>
@@ -23711,7 +23544,7 @@
       <c r="N25" s="39"/>
       <c r="O25" s="54"/>
       <c r="P25" s="55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="39"/>
       <c r="R25" s="54"/>
@@ -23796,11 +23629,11 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="E26" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F26" s="54"/>
       <c r="G26" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
@@ -23811,7 +23644,7 @@
       <c r="N26" s="39"/>
       <c r="O26" s="54"/>
       <c r="P26" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="39"/>
       <c r="R26" s="54"/>
@@ -23898,7 +23731,7 @@
       <c r="E27" s="58"/>
       <c r="F27" s="59"/>
       <c r="G27" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H27" s="60"/>
       <c r="I27" s="60"/>
@@ -24085,7 +23918,7 @@
       <c r="A29" s="15"/>
       <c r="B29" s="1"/>
       <c r="D29" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -25718,7 +25551,7 @@
   <sheetData>
     <row r="1" spans="1:93">
       <c r="A1" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -26006,7 +25839,7 @@
     <row r="4" spans="1:93">
       <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="11"/>
@@ -26103,7 +25936,7 @@
     <row r="5" spans="1:93">
       <c r="A5" s="15"/>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -26201,7 +26034,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -26298,7 +26131,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -26489,7 +26322,7 @@
       <c r="A9" s="15"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -26514,7 +26347,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -26589,7 +26422,7 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -26686,7 +26519,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -26783,7 +26616,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -26973,7 +26806,7 @@
     <row r="14" spans="1:93">
       <c r="A14" s="15"/>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -27166,7 +26999,7 @@
       <c r="A16" s="15"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -27264,7 +27097,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -27360,7 +27193,7 @@
       <c r="A18" s="15"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -27456,7 +27289,7 @@
       <c r="A19" s="15"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -27552,7 +27385,7 @@
       <c r="A20" s="15"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -27741,7 +27574,7 @@
     <row r="22" spans="1:93">
       <c r="A22" s="15"/>
       <c r="C22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -27838,7 +27671,7 @@
       <c r="A23" s="15"/>
       <c r="C23" s="1"/>
       <c r="D23" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -28024,7 +27857,7 @@
     <row r="25" spans="1:93" s="3" customFormat="1">
       <c r="A25" s="17"/>
       <c r="C25" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -28126,7 +27959,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -28308,7 +28141,7 @@
     <row r="28" spans="1:93">
       <c r="A28" s="15"/>
       <c r="C28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -28405,7 +28238,7 @@
       <c r="A29" s="15"/>
       <c r="B29" s="1"/>
       <c r="C29" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -28596,7 +28429,7 @@
     <row r="31" spans="1:93">
       <c r="A31" s="15"/>
       <c r="C31" s="64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
@@ -29258,24 +29091,24 @@
       <c r="A38" s="15"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="93" t="s">
-        <v>155</v>
+      <c r="D38" s="110" t="s">
+        <v>154</v>
       </c>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="94"/>
-      <c r="R38" s="94"/>
-      <c r="S38" s="100"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="115"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="16"/>
@@ -29355,22 +29188,22 @@
       <c r="A39" s="15"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="101"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
+      <c r="S39" s="116"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="16"/>
@@ -30823,35 +30656,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CO51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:93">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="104"/>
+      <c r="A1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="119"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -30925,28 +30758,28 @@
       <c r="CO1" s="1"/>
     </row>
     <row r="2" spans="1:93">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="107"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="122"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -31118,10 +30951,10 @@
       <c r="A4" s="15"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I4" s="66"/>
       <c r="J4" s="22"/>
@@ -31213,10 +31046,10 @@
       <c r="A5" s="15"/>
       <c r="B5" s="1"/>
       <c r="C5" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H5" s="80" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I5" s="66"/>
       <c r="J5" s="22"/>
@@ -31308,10 +31141,10 @@
       <c r="A6" s="15"/>
       <c r="B6" s="1"/>
       <c r="C6" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H6" s="80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I6" s="66"/>
       <c r="J6" s="22"/>
@@ -31403,10 +31236,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I7" s="66"/>
       <c r="J7" s="22"/>
@@ -31498,13 +31331,13 @@
       <c r="A8" s="15"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="H8" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" s="66"/>
       <c r="J8" s="22"/>
@@ -31689,27 +31522,27 @@
     </row>
     <row r="10" spans="1:93">
       <c r="A10" s="15"/>
-      <c r="B10" s="93" t="s">
-        <v>166</v>
+      <c r="B10" s="110" t="s">
+        <v>165</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="100"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="115"/>
       <c r="U10" s="1"/>
       <c r="V10" s="16"/>
       <c r="W10" s="1"/>
@@ -31786,25 +31619,25 @@
     </row>
     <row r="11" spans="1:93">
       <c r="A11" s="15"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="101"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="116"/>
       <c r="V11" s="16"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -31958,14 +31791,14 @@
     <row r="13" spans="1:93">
       <c r="A13" s="15"/>
       <c r="B13" s="68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="69"/>
       <c r="D13" s="69"/>
       <c r="E13" s="69"/>
       <c r="F13" s="69"/>
       <c r="G13" s="69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H13" s="69"/>
       <c r="I13" s="69"/>
@@ -32057,7 +31890,7 @@
     <row r="14" spans="1:93" s="3" customFormat="1">
       <c r="A14" s="17"/>
       <c r="B14" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
@@ -32154,7 +31987,7 @@
     <row r="15" spans="1:93" s="3" customFormat="1">
       <c r="A15" s="17"/>
       <c r="B15" s="73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="67"/>
       <c r="D15" s="67"/>
@@ -32165,21 +31998,21 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="108" t="s">
-        <v>174</v>
+      <c r="L15" s="123" t="s">
+        <v>173</v>
       </c>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108">
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123">
         <v>80</v>
       </c>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="108">
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123">
         <v>82</v>
       </c>
-      <c r="S15" s="108"/>
-      <c r="T15" s="108"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="123"/>
       <c r="U15" s="72"/>
       <c r="V15" s="18"/>
       <c r="W15" s="8"/>
@@ -32257,7 +32090,7 @@
     <row r="16" spans="1:93">
       <c r="A16" s="15"/>
       <c r="B16" s="73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" s="67"/>
       <c r="D16" s="67"/>
@@ -32268,15 +32101,15 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
       <c r="U16" s="74"/>
       <c r="V16" s="16"/>
       <c r="W16" s="1"/>
@@ -32354,13 +32187,13 @@
     <row r="17" spans="1:93">
       <c r="A17" s="15"/>
       <c r="B17" s="75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="76"/>
       <c r="D17" s="76"/>
       <c r="E17" s="76"/>
       <c r="F17" s="77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G17" s="78"/>
       <c r="H17" s="76"/>
@@ -35629,40 +35462,37 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="1"/>
-  </sheetPr>
   <dimension ref="A1:CO64"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28:T29"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:93">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="104"/>
+      <c r="A1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="119"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -35736,28 +35566,28 @@
       <c r="CO1" s="1"/>
     </row>
     <row r="2" spans="1:93">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="107"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="122"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -35928,7 +35758,7 @@
     <row r="4" spans="1:93">
       <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="26"/>
       <c r="V4" s="16"/>
@@ -36085,23 +35915,23 @@
       <c r="A6" s="15"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J6" s="65"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
       <c r="M6" s="82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V6" s="16"/>
       <c r="W6" s="1"/>
@@ -36180,7 +36010,7 @@
       <c r="A7" s="17"/>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -36192,18 +36022,18 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O7"/>
       <c r="P7" s="28"/>
       <c r="Q7" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S7"/>
       <c r="T7"/>
@@ -36379,7 +36209,7 @@
     <row r="9" spans="1:93">
       <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V9" s="16"/>
       <c r="W9" s="1"/>
@@ -36533,24 +36363,24 @@
     <row r="11" spans="1:93">
       <c r="A11" s="15"/>
       <c r="B11" s="8"/>
-      <c r="D11" s="93" t="s">
-        <v>202</v>
+      <c r="D11" s="110" t="s">
+        <v>201</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="100"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="115"/>
       <c r="V11" s="16"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -36627,22 +36457,22 @@
     <row r="12" spans="1:93">
       <c r="A12" s="15"/>
       <c r="B12" s="8"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="101"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="116"/>
       <c r="V12" s="16"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -36812,14 +36642,14 @@
     <row r="14" spans="1:93">
       <c r="A14" s="15"/>
       <c r="B14" s="90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="84"/>
       <c r="D14" s="84"/>
       <c r="E14" s="84"/>
       <c r="F14" s="84"/>
       <c r="G14" s="84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H14" s="84"/>
       <c r="I14" s="84"/>
@@ -36834,7 +36664,7 @@
       <c r="R14" s="84"/>
       <c r="S14" s="84"/>
       <c r="T14" s="91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U14" s="85"/>
       <c r="V14" s="16"/>
@@ -36913,7 +36743,7 @@
     <row r="15" spans="1:93">
       <c r="A15" s="15"/>
       <c r="B15" s="86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="87"/>
       <c r="D15" s="87"/>
@@ -37010,7 +36840,7 @@
     <row r="16" spans="1:93">
       <c r="A16" s="15"/>
       <c r="B16" s="89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="87"/>
       <c r="D16" s="87"/>
@@ -37021,21 +36851,15 @@
       <c r="I16" s="83"/>
       <c r="J16" s="83"/>
       <c r="K16" s="83"/>
-      <c r="L16" s="135" t="s">
-        <v>174</v>
-      </c>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135">
-        <v>78</v>
-      </c>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="135">
-        <v>79</v>
-      </c>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
       <c r="U16" s="88"/>
       <c r="V16" s="16"/>
       <c r="W16" s="1"/>
@@ -37113,7 +36937,7 @@
     <row r="17" spans="1:93">
       <c r="A17" s="15"/>
       <c r="B17" s="89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="87"/>
       <c r="D17" s="87"/>
@@ -37124,15 +36948,15 @@
       <c r="I17" s="83"/>
       <c r="J17" s="83"/>
       <c r="K17" s="83"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="136"/>
-      <c r="S17" s="136"/>
-      <c r="T17" s="136"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
       <c r="U17" s="88"/>
       <c r="V17" s="16"/>
       <c r="W17" s="1"/>
@@ -37210,13 +37034,13 @@
     <row r="18" spans="1:93">
       <c r="A18" s="15"/>
       <c r="B18" s="75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="76"/>
       <c r="D18" s="76"/>
       <c r="E18" s="76"/>
       <c r="F18" s="77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G18" s="78"/>
       <c r="H18" s="76"/>
@@ -37386,7 +37210,7 @@
     <row r="20" spans="1:93">
       <c r="A20" s="15"/>
       <c r="B20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V20" s="16"/>
       <c r="W20" s="1"/>
@@ -37465,7 +37289,7 @@
       <c r="A21" s="15"/>
       <c r="B21" s="8"/>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V21" s="16"/>
       <c r="W21" s="1"/>
@@ -37619,24 +37443,24 @@
     <row r="23" spans="1:93">
       <c r="A23" s="15"/>
       <c r="B23" s="8"/>
-      <c r="D23" s="93" t="s">
-        <v>193</v>
+      <c r="D23" s="110" t="s">
+        <v>192</v>
       </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="100"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="115"/>
       <c r="V23" s="16"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
@@ -37713,22 +37537,22 @@
     <row r="24" spans="1:93">
       <c r="A24" s="15"/>
       <c r="B24" s="8"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="101"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="116"/>
       <c r="V24" s="16"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -37898,14 +37722,14 @@
     <row r="26" spans="1:93">
       <c r="A26" s="15"/>
       <c r="B26" s="90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C26" s="84"/>
       <c r="D26" s="84"/>
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="G26" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H26" s="84"/>
       <c r="I26" s="84"/>
@@ -37920,7 +37744,7 @@
       <c r="R26" s="84"/>
       <c r="S26" s="84"/>
       <c r="T26" s="91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U26" s="85"/>
       <c r="V26" s="16"/>
@@ -37999,7 +37823,7 @@
     <row r="27" spans="1:93">
       <c r="A27" s="15"/>
       <c r="B27" s="86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="87"/>
       <c r="D27" s="87"/>
@@ -38096,7 +37920,7 @@
     <row r="28" spans="1:93">
       <c r="A28" s="15"/>
       <c r="B28" s="89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" s="87"/>
       <c r="D28" s="87"/>
@@ -38107,21 +37931,15 @@
       <c r="I28" s="83"/>
       <c r="J28" s="83"/>
       <c r="K28" s="83"/>
-      <c r="L28" s="135" t="s">
-        <v>174</v>
-      </c>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135">
-        <v>80</v>
-      </c>
-      <c r="P28" s="135"/>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="135">
-        <v>82</v>
-      </c>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
       <c r="U28" s="88"/>
       <c r="V28" s="16"/>
       <c r="W28" s="1"/>
@@ -38199,7 +38017,7 @@
     <row r="29" spans="1:93">
       <c r="A29" s="15"/>
       <c r="B29" s="89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
@@ -38210,15 +38028,15 @@
       <c r="I29" s="83"/>
       <c r="J29" s="83"/>
       <c r="K29" s="83"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="136"/>
-      <c r="T29" s="136"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
       <c r="U29" s="88"/>
       <c r="V29" s="16"/>
       <c r="W29" s="1"/>
@@ -38296,13 +38114,13 @@
     <row r="30" spans="1:93">
       <c r="A30" s="15"/>
       <c r="B30" s="75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" s="76"/>
       <c r="D30" s="76"/>
       <c r="E30" s="76"/>
       <c r="F30" s="77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G30" s="78"/>
       <c r="H30" s="76"/>
@@ -38962,7 +38780,7 @@
       <c r="A37" s="15"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -39153,24 +38971,24 @@
     <row r="39" spans="1:93">
       <c r="A39" s="15"/>
       <c r="B39" s="8"/>
-      <c r="D39" s="93" t="s">
-        <v>204</v>
+      <c r="D39" s="110" t="s">
+        <v>203</v>
       </c>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="94"/>
-      <c r="Q39" s="94"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="100"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="115"/>
       <c r="V39" s="16"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -39247,22 +39065,22 @@
     <row r="40" spans="1:93">
       <c r="A40" s="15"/>
       <c r="B40" s="8"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="96"/>
-      <c r="S40" s="101"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
+      <c r="S40" s="116"/>
       <c r="V40" s="16"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -39432,7 +39250,7 @@
     <row r="42" spans="1:93">
       <c r="A42" s="15"/>
       <c r="B42" s="90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C42" s="84"/>
       <c r="D42" s="84"/>
@@ -39452,7 +39270,7 @@
       <c r="R42" s="84"/>
       <c r="S42" s="84"/>
       <c r="T42" s="91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U42" s="85"/>
       <c r="V42" s="16"/>
@@ -39531,7 +39349,7 @@
     <row r="43" spans="1:93">
       <c r="A43" s="15"/>
       <c r="B43" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
@@ -39628,7 +39446,7 @@
     <row r="44" spans="1:93">
       <c r="A44" s="15"/>
       <c r="B44" s="89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C44" s="87"/>
       <c r="D44" s="87"/>
@@ -39725,7 +39543,7 @@
     <row r="45" spans="1:93">
       <c r="A45" s="15"/>
       <c r="B45" s="89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C45" s="87"/>
       <c r="D45" s="87"/>
@@ -39822,7 +39640,7 @@
     <row r="46" spans="1:93">
       <c r="A46" s="15"/>
       <c r="B46" s="92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C46" s="76"/>
       <c r="D46" s="76"/>
@@ -40015,24 +39833,24 @@
       <c r="A48" s="15"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="93" t="s">
-        <v>91</v>
+      <c r="D48" s="110" t="s">
+        <v>90</v>
       </c>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="94"/>
-      <c r="L48" s="94"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="94"/>
-      <c r="O48" s="94"/>
-      <c r="P48" s="94"/>
-      <c r="Q48" s="94"/>
-      <c r="R48" s="94"/>
-      <c r="S48" s="100"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="111"/>
+      <c r="K48" s="111"/>
+      <c r="L48" s="111"/>
+      <c r="M48" s="111"/>
+      <c r="N48" s="111"/>
+      <c r="O48" s="111"/>
+      <c r="P48" s="111"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="111"/>
+      <c r="S48" s="115"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="16"/>
@@ -40112,22 +39930,22 @@
       <c r="A49" s="15"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
-      <c r="P49" s="96"/>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="96"/>
-      <c r="S49" s="101"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="113"/>
+      <c r="M49" s="113"/>
+      <c r="N49" s="113"/>
+      <c r="O49" s="113"/>
+      <c r="P49" s="113"/>
+      <c r="Q49" s="113"/>
+      <c r="R49" s="113"/>
+      <c r="S49" s="116"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="16"/>
@@ -41567,17 +41385,11 @@
       <c r="CH64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="5">
     <mergeCell ref="A1:V2"/>
     <mergeCell ref="D48:S49"/>
-    <mergeCell ref="L28:N29"/>
-    <mergeCell ref="O28:Q29"/>
-    <mergeCell ref="R28:T29"/>
     <mergeCell ref="D23:S24"/>
     <mergeCell ref="D11:S12"/>
-    <mergeCell ref="L16:N17"/>
-    <mergeCell ref="O16:Q17"/>
-    <mergeCell ref="R16:T17"/>
     <mergeCell ref="D39:S40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -41586,43 +41398,42 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CO46"/>
+  <dimension ref="A1:CO43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:93">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="104"/>
+      <c r="A1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="119"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -41696,28 +41507,28 @@
       <c r="CO1" s="1"/>
     </row>
     <row r="2" spans="1:93">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="107"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="122"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -41967,9 +41778,10 @@
     <row r="5" spans="1:93">
       <c r="A5" s="15"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>210</v>
+      <c r="C5" s="134" t="s">
+        <v>209</v>
       </c>
+      <c r="D5" s="135"/>
       <c r="V5" s="16"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -42046,9 +41858,10 @@
     <row r="6" spans="1:93">
       <c r="A6" s="15"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>211</v>
+      <c r="C6" s="67" t="s">
+        <v>210</v>
       </c>
+      <c r="D6" s="135"/>
       <c r="V6" s="16"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -42125,9 +41938,10 @@
     <row r="7" spans="1:93">
       <c r="A7" s="15"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="9" t="s">
-        <v>212</v>
+      <c r="C7" s="136" t="s">
+        <v>211</v>
       </c>
+      <c r="D7" s="135"/>
       <c r="V7" s="16"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -42720,278 +42534,292 @@
       <c r="CN13" s="1"/>
       <c r="CO13" s="1"/>
     </row>
-    <row r="14" spans="1:93" s="118" customFormat="1">
-      <c r="A14" s="117"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="124" t="s">
-        <v>61</v>
+    <row r="14" spans="1:93">
+      <c r="A14" s="15"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119"/>
-      <c r="S14" s="119"/>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="121"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="119"/>
-      <c r="Z14" s="119"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="119"/>
-      <c r="AC14" s="119"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="119"/>
-      <c r="AF14" s="119"/>
-      <c r="AG14" s="119"/>
-      <c r="AH14" s="119"/>
-      <c r="AI14" s="119"/>
-      <c r="AJ14" s="119"/>
-      <c r="AK14" s="119"/>
-      <c r="AL14" s="119"/>
-      <c r="AM14" s="119"/>
-      <c r="AN14" s="119"/>
-      <c r="AO14" s="119"/>
-      <c r="AP14" s="119"/>
-      <c r="AQ14" s="119"/>
-      <c r="AR14" s="119"/>
-      <c r="AS14" s="119"/>
-      <c r="AT14" s="119"/>
-      <c r="AU14" s="119"/>
-      <c r="AV14" s="119"/>
-      <c r="AW14" s="119"/>
-      <c r="AX14" s="119"/>
-      <c r="AY14" s="119"/>
-      <c r="AZ14" s="119"/>
-      <c r="BA14" s="119"/>
-      <c r="BB14" s="119"/>
-      <c r="BC14" s="119"/>
-      <c r="BD14" s="119"/>
-      <c r="BE14" s="119"/>
-      <c r="BF14" s="119"/>
-      <c r="BG14" s="119"/>
-      <c r="BH14" s="119"/>
-      <c r="BI14" s="119"/>
-      <c r="BJ14" s="119"/>
-      <c r="BK14" s="119"/>
-      <c r="BL14" s="119"/>
-      <c r="BM14" s="119"/>
-      <c r="BN14" s="119"/>
-      <c r="BO14" s="133"/>
-      <c r="BP14" s="119"/>
-      <c r="BQ14" s="119"/>
-      <c r="BR14" s="119"/>
-      <c r="BS14" s="119"/>
-      <c r="BT14" s="119"/>
-      <c r="BU14" s="119"/>
-      <c r="BV14" s="119"/>
-      <c r="BW14" s="119"/>
-      <c r="BX14" s="119"/>
-      <c r="BY14" s="119"/>
-      <c r="BZ14" s="119"/>
-      <c r="CA14" s="119"/>
-      <c r="CB14" s="119"/>
-      <c r="CC14" s="119"/>
-      <c r="CD14" s="119"/>
-      <c r="CE14" s="119"/>
-      <c r="CF14" s="119"/>
-      <c r="CG14" s="119"/>
-      <c r="CH14" s="119"/>
-      <c r="CI14" s="119"/>
-      <c r="CJ14" s="119"/>
-      <c r="CK14" s="119"/>
-      <c r="CL14" s="119"/>
-      <c r="CM14" s="119"/>
-      <c r="CN14" s="119"/>
-      <c r="CO14" s="119"/>
+      <c r="D14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1"/>
+      <c r="CE14" s="1"/>
+      <c r="CF14" s="1"/>
+      <c r="CG14" s="1"/>
+      <c r="CH14" s="1"/>
+      <c r="CI14" s="1"/>
+      <c r="CJ14" s="1"/>
+      <c r="CK14" s="1"/>
+      <c r="CL14" s="1"/>
+      <c r="CM14" s="1"/>
+      <c r="CN14" s="1"/>
+      <c r="CO14" s="1"/>
     </row>
-    <row r="15" spans="1:93" s="118" customFormat="1">
-      <c r="A15" s="117"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="130"/>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="131"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="119"/>
-      <c r="X15" s="119"/>
-      <c r="Y15" s="119"/>
-      <c r="Z15" s="119"/>
-      <c r="AA15" s="119"/>
-      <c r="AB15" s="119"/>
-      <c r="AC15" s="119"/>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="119"/>
-      <c r="AF15" s="119"/>
-      <c r="AG15" s="119"/>
-      <c r="AH15" s="119"/>
-      <c r="AI15" s="119"/>
-      <c r="AJ15" s="119"/>
-      <c r="AK15" s="119"/>
-      <c r="AL15" s="119"/>
-      <c r="AM15" s="119"/>
-      <c r="AN15" s="119"/>
-      <c r="AO15" s="119"/>
-      <c r="AP15" s="119"/>
-      <c r="AQ15" s="119"/>
-      <c r="AR15" s="119"/>
-      <c r="AS15" s="119"/>
-      <c r="AT15" s="119"/>
-      <c r="AU15" s="119"/>
-      <c r="AV15" s="119"/>
-      <c r="AW15" s="119"/>
-      <c r="AX15" s="119"/>
-      <c r="AY15" s="119"/>
-      <c r="AZ15" s="119"/>
-      <c r="BA15" s="119"/>
-      <c r="BB15" s="119"/>
-      <c r="BC15" s="119"/>
-      <c r="BD15" s="119"/>
-      <c r="BE15" s="119"/>
-      <c r="BF15" s="119"/>
-      <c r="BG15" s="119"/>
-      <c r="BH15" s="119"/>
-      <c r="BI15" s="119"/>
-      <c r="BJ15" s="119"/>
-      <c r="BK15" s="119"/>
-      <c r="BL15" s="119"/>
-      <c r="BM15" s="119"/>
-      <c r="BN15" s="119"/>
-      <c r="BO15" s="119"/>
-      <c r="BP15" s="119"/>
-      <c r="BQ15" s="119"/>
-      <c r="BR15" s="119"/>
-      <c r="BS15" s="119"/>
-      <c r="BT15" s="119"/>
-      <c r="BU15" s="119"/>
-      <c r="BV15" s="119"/>
-      <c r="BW15" s="119"/>
-      <c r="BX15" s="119"/>
-      <c r="BY15" s="119"/>
-      <c r="BZ15" s="119"/>
-      <c r="CA15" s="119"/>
-      <c r="CB15" s="119"/>
-      <c r="CC15" s="119"/>
-      <c r="CD15" s="119"/>
-      <c r="CE15" s="119"/>
-      <c r="CF15" s="119"/>
-      <c r="CG15" s="119"/>
-      <c r="CH15" s="119"/>
-      <c r="CI15" s="119"/>
-      <c r="CJ15" s="119"/>
-      <c r="CK15" s="119"/>
-      <c r="CL15" s="119"/>
-      <c r="CM15" s="119"/>
-      <c r="CN15" s="119"/>
-      <c r="CO15" s="119"/>
+    <row r="15" spans="1:93">
+      <c r="A15" s="15"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+      <c r="BS15" s="1"/>
+      <c r="BT15" s="1"/>
+      <c r="BU15" s="1"/>
+      <c r="BV15" s="1"/>
+      <c r="BW15" s="1"/>
+      <c r="BX15" s="1"/>
+      <c r="BY15" s="1"/>
+      <c r="BZ15" s="1"/>
+      <c r="CA15" s="1"/>
+      <c r="CB15" s="1"/>
+      <c r="CC15" s="1"/>
+      <c r="CD15" s="1"/>
+      <c r="CE15" s="1"/>
+      <c r="CF15" s="1"/>
+      <c r="CG15" s="1"/>
+      <c r="CH15" s="1"/>
+      <c r="CI15" s="1"/>
+      <c r="CJ15" s="1"/>
+      <c r="CK15" s="1"/>
+      <c r="CL15" s="1"/>
+      <c r="CM15" s="1"/>
+      <c r="CN15" s="1"/>
+      <c r="CO15" s="1"/>
     </row>
-    <row r="16" spans="1:93" s="118" customFormat="1">
-      <c r="A16" s="117"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="119"/>
-      <c r="X16" s="119"/>
-      <c r="Y16" s="119"/>
-      <c r="Z16" s="119"/>
-      <c r="AA16" s="119"/>
-      <c r="AB16" s="119"/>
-      <c r="AC16" s="119"/>
-      <c r="AD16" s="119"/>
-      <c r="AE16" s="119"/>
-      <c r="AF16" s="119"/>
-      <c r="AG16" s="119"/>
-      <c r="AH16" s="119"/>
-      <c r="AI16" s="119"/>
-      <c r="AJ16" s="119"/>
-      <c r="AK16" s="119"/>
-      <c r="AL16" s="119"/>
-      <c r="AM16" s="119"/>
-      <c r="AN16" s="119"/>
-      <c r="AO16" s="119"/>
-      <c r="AP16" s="119"/>
-      <c r="AQ16" s="119"/>
-      <c r="AR16" s="119"/>
-      <c r="AS16" s="119"/>
-      <c r="AT16" s="119"/>
-      <c r="AU16" s="119"/>
-      <c r="AV16" s="119"/>
-      <c r="AW16" s="119"/>
-      <c r="AX16" s="119"/>
-      <c r="AY16" s="119"/>
-      <c r="AZ16" s="119"/>
-      <c r="BA16" s="119"/>
-      <c r="BB16" s="119"/>
-      <c r="BC16" s="119"/>
-      <c r="BD16" s="119"/>
-      <c r="BE16" s="119"/>
-      <c r="BF16" s="119"/>
-      <c r="BG16" s="119"/>
-      <c r="BH16" s="119"/>
-      <c r="BI16" s="119"/>
-      <c r="BJ16" s="119"/>
-      <c r="BK16" s="119"/>
-      <c r="BL16" s="119"/>
-      <c r="BM16" s="119"/>
-      <c r="BN16" s="119"/>
-      <c r="BO16" s="119"/>
-      <c r="BP16" s="119"/>
-      <c r="BQ16" s="119"/>
-      <c r="BR16" s="119"/>
-      <c r="BS16" s="119"/>
-      <c r="BT16" s="119"/>
-      <c r="BU16" s="119"/>
-      <c r="BV16" s="119"/>
-      <c r="BW16" s="119"/>
-      <c r="BX16" s="119"/>
-      <c r="BY16" s="119"/>
-      <c r="BZ16" s="119"/>
-      <c r="CA16" s="119"/>
-      <c r="CB16" s="119"/>
-      <c r="CC16" s="119"/>
-      <c r="CD16" s="119"/>
-      <c r="CE16" s="119"/>
-      <c r="CF16" s="119"/>
-      <c r="CG16" s="119"/>
-      <c r="CH16" s="119"/>
-      <c r="CI16" s="119"/>
-      <c r="CJ16" s="119"/>
-      <c r="CK16" s="119"/>
-      <c r="CL16" s="119"/>
-      <c r="CM16" s="119"/>
-      <c r="CN16" s="119"/>
-      <c r="CO16" s="119"/>
+    <row r="16" spans="1:93">
+      <c r="A16" s="15"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="1"/>
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+      <c r="BT16" s="1"/>
+      <c r="BU16" s="1"/>
+      <c r="BV16" s="1"/>
+      <c r="BW16" s="1"/>
+      <c r="BX16" s="1"/>
+      <c r="BY16" s="1"/>
+      <c r="BZ16" s="1"/>
+      <c r="CA16" s="1"/>
+      <c r="CB16" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="1"/>
+      <c r="CF16" s="1"/>
+      <c r="CG16" s="1"/>
+      <c r="CH16" s="1"/>
+      <c r="CI16" s="1"/>
+      <c r="CJ16" s="1"/>
+      <c r="CK16" s="1"/>
+      <c r="CL16" s="1"/>
+      <c r="CM16" s="1"/>
+      <c r="CN16" s="1"/>
+      <c r="CO16" s="1"/>
     </row>
     <row r="17" spans="1:93">
       <c r="A17" s="15"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -43080,10 +42908,10 @@
       <c r="A18" s="15"/>
       <c r="B18" s="1"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -43094,23 +42922,27 @@
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="23"/>
+      <c r="R18" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="S18" s="126"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="16"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+      <c r="Z18" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
+      <c r="AC18" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -43142,7 +42974,7 @@
       <c r="BK18" s="1"/>
       <c r="BL18" s="1"/>
       <c r="BM18" s="1"/>
-      <c r="BN18" s="1"/>
+      <c r="BN18" s="10"/>
       <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
       <c r="BQ18" s="1"/>
@@ -43196,12 +43028,12 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+      <c r="AC19" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -43234,8 +43066,8 @@
       <c r="BL19" s="1"/>
       <c r="BM19" s="1"/>
       <c r="BN19" s="1"/>
-      <c r="BO19" s="1"/>
-      <c r="BP19" s="1"/>
+      <c r="BO19" s="11"/>
+      <c r="BP19" s="10"/>
       <c r="BQ19" s="1"/>
       <c r="BR19" s="1"/>
       <c r="BS19" s="1"/>
@@ -43265,10 +43097,10 @@
     <row r="20" spans="1:93">
       <c r="A20" s="15"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="K20" s="1"/>
@@ -43289,7 +43121,9 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
+      <c r="AC20" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
@@ -43322,27 +43156,27 @@
       <c r="BG20" s="1"/>
       <c r="BH20" s="1"/>
       <c r="BI20" s="1"/>
-      <c r="BJ20" s="1"/>
-      <c r="BK20" s="1"/>
-      <c r="BL20" s="1"/>
-      <c r="BM20" s="1"/>
-      <c r="BN20" s="1"/>
-      <c r="BO20" s="1"/>
+      <c r="BJ20" s="8"/>
+      <c r="BK20" s="8"/>
+      <c r="BL20" s="8"/>
+      <c r="BM20" s="8"/>
+      <c r="BN20" s="8"/>
+      <c r="BO20" s="9"/>
       <c r="BP20" s="1"/>
-      <c r="BQ20" s="1"/>
-      <c r="BR20" s="1"/>
-      <c r="BS20" s="1"/>
-      <c r="BT20" s="1"/>
-      <c r="BU20" s="1"/>
-      <c r="BV20" s="1"/>
-      <c r="BW20" s="1"/>
-      <c r="BX20" s="1"/>
-      <c r="BY20" s="1"/>
-      <c r="BZ20" s="1"/>
-      <c r="CA20" s="1"/>
-      <c r="CB20" s="1"/>
-      <c r="CC20" s="1"/>
-      <c r="CD20" s="1"/>
+      <c r="BQ20" s="8"/>
+      <c r="BR20" s="8"/>
+      <c r="BS20" s="8"/>
+      <c r="BT20" s="8"/>
+      <c r="BU20" s="8"/>
+      <c r="BV20" s="8"/>
+      <c r="BW20" s="8"/>
+      <c r="BX20" s="8"/>
+      <c r="BY20" s="8"/>
+      <c r="BZ20" s="8"/>
+      <c r="CA20" s="8"/>
+      <c r="CB20" s="8"/>
+      <c r="CC20" s="8"/>
+      <c r="CD20" s="8"/>
       <c r="CE20" s="1"/>
       <c r="CF20" s="1"/>
       <c r="CG20" s="1"/>
@@ -43358,42 +43192,40 @@
     <row r="21" spans="1:93">
       <c r="A21" s="15"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="S21" s="99"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="16"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1" t="s">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -43420,28 +43252,28 @@
       <c r="BF21" s="1"/>
       <c r="BG21" s="1"/>
       <c r="BH21" s="1"/>
-      <c r="BI21" s="1"/>
-      <c r="BJ21" s="1"/>
-      <c r="BK21" s="1"/>
-      <c r="BL21" s="1"/>
-      <c r="BM21" s="1"/>
-      <c r="BN21" s="10"/>
+      <c r="BI21" s="8"/>
+      <c r="BJ21" s="8"/>
+      <c r="BK21" s="8"/>
+      <c r="BL21" s="8"/>
+      <c r="BM21" s="8"/>
+      <c r="BN21" s="8"/>
       <c r="BO21" s="1"/>
-      <c r="BP21" s="1"/>
-      <c r="BQ21" s="1"/>
-      <c r="BR21" s="1"/>
-      <c r="BS21" s="1"/>
-      <c r="BT21" s="1"/>
-      <c r="BU21" s="1"/>
-      <c r="BV21" s="1"/>
-      <c r="BW21" s="1"/>
-      <c r="BX21" s="1"/>
-      <c r="BY21" s="1"/>
-      <c r="BZ21" s="1"/>
-      <c r="CA21" s="1"/>
-      <c r="CB21" s="1"/>
-      <c r="CC21" s="1"/>
-      <c r="CD21" s="1"/>
+      <c r="BP21" s="8"/>
+      <c r="BQ21" s="8"/>
+      <c r="BR21" s="8"/>
+      <c r="BS21" s="8"/>
+      <c r="BT21" s="8"/>
+      <c r="BU21" s="8"/>
+      <c r="BV21" s="8"/>
+      <c r="BW21" s="8"/>
+      <c r="BX21" s="8"/>
+      <c r="BY21" s="8"/>
+      <c r="BZ21" s="8"/>
+      <c r="CA21" s="8"/>
+      <c r="CB21" s="8"/>
+      <c r="CC21" s="8"/>
+      <c r="CD21" s="8"/>
       <c r="CE21" s="1"/>
       <c r="CF21" s="1"/>
       <c r="CG21" s="1"/>
@@ -43459,8 +43291,12 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -43480,11 +43316,13 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -43517,8 +43355,8 @@
       <c r="BL22" s="1"/>
       <c r="BM22" s="1"/>
       <c r="BN22" s="1"/>
-      <c r="BO22" s="11"/>
-      <c r="BP22" s="10"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
       <c r="BQ22" s="1"/>
       <c r="BR22" s="1"/>
       <c r="BS22" s="1"/>
@@ -43550,10 +43388,12 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -43572,8 +43412,8 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="1" t="s">
-        <v>73</v>
+      <c r="AC23" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -43607,27 +43447,27 @@
       <c r="BG23" s="1"/>
       <c r="BH23" s="1"/>
       <c r="BI23" s="1"/>
-      <c r="BJ23" s="8"/>
-      <c r="BK23" s="8"/>
-      <c r="BL23" s="8"/>
-      <c r="BM23" s="8"/>
-      <c r="BN23" s="8"/>
-      <c r="BO23" s="9"/>
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
       <c r="BP23" s="1"/>
-      <c r="BQ23" s="8"/>
-      <c r="BR23" s="8"/>
-      <c r="BS23" s="8"/>
-      <c r="BT23" s="8"/>
-      <c r="BU23" s="8"/>
-      <c r="BV23" s="8"/>
-      <c r="BW23" s="8"/>
-      <c r="BX23" s="8"/>
-      <c r="BY23" s="8"/>
-      <c r="BZ23" s="8"/>
-      <c r="CA23" s="8"/>
-      <c r="CB23" s="8"/>
-      <c r="CC23" s="8"/>
-      <c r="CD23" s="8"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="1"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
       <c r="CE23" s="1"/>
       <c r="CF23" s="1"/>
       <c r="CG23" s="1"/>
@@ -43646,7 +43486,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -43669,10 +43509,9 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
-      <c r="AC24" s="1" t="s">
-        <v>76</v>
+      <c r="AC24" s="9" t="s">
+        <v>212</v>
       </c>
-      <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
@@ -43703,28 +43542,28 @@
       <c r="BF24" s="1"/>
       <c r="BG24" s="1"/>
       <c r="BH24" s="1"/>
-      <c r="BI24" s="8"/>
-      <c r="BJ24" s="8"/>
-      <c r="BK24" s="8"/>
-      <c r="BL24" s="8"/>
-      <c r="BM24" s="8"/>
-      <c r="BN24" s="8"/>
+      <c r="BI24" s="1"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
       <c r="BO24" s="1"/>
-      <c r="BP24" s="8"/>
-      <c r="BQ24" s="8"/>
-      <c r="BR24" s="8"/>
-      <c r="BS24" s="8"/>
-      <c r="BT24" s="8"/>
-      <c r="BU24" s="8"/>
-      <c r="BV24" s="8"/>
-      <c r="BW24" s="8"/>
-      <c r="BX24" s="8"/>
-      <c r="BY24" s="8"/>
-      <c r="BZ24" s="8"/>
-      <c r="CA24" s="8"/>
-      <c r="CB24" s="8"/>
-      <c r="CC24" s="8"/>
-      <c r="CD24" s="8"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
+      <c r="BY24" s="1"/>
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="1"/>
+      <c r="CB24" s="1"/>
+      <c r="CC24" s="1"/>
+      <c r="CD24" s="1"/>
       <c r="CE24" s="1"/>
       <c r="CF24" s="1"/>
       <c r="CG24" s="1"/>
@@ -43766,8 +43605,8 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="1" t="s">
-        <v>75</v>
+      <c r="AC25" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -43838,22 +43677,24 @@
       <c r="A26" s="15"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
+      <c r="D26" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="115"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="16"/>
@@ -43863,9 +43704,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
@@ -43935,22 +43774,22 @@
       <c r="A27" s="15"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="113"/>
+      <c r="Q27" s="113"/>
+      <c r="R27" s="113"/>
+      <c r="S27" s="116"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="16"/>
@@ -43960,9 +43799,8 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="9" t="s">
-        <v>213</v>
-      </c>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
@@ -44033,7 +43871,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -44056,9 +43894,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
-      <c r="AC28" s="9" t="s">
-        <v>215</v>
-      </c>
+      <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
@@ -44128,24 +43964,22 @@
       <c r="A29" s="15"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="100"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="16"/>
@@ -44222,28 +44056,28 @@
       <c r="CO29" s="1"/>
     </row>
     <row r="30" spans="1:93">
-      <c r="A30" s="15"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="16"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="21"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
@@ -44317,12 +44151,12 @@
       <c r="CO30" s="1"/>
     </row>
     <row r="31" spans="1:93">
-      <c r="A31" s="15"/>
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -44338,7 +44172,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="16"/>
+      <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -44412,11 +44246,11 @@
       <c r="CO31" s="1"/>
     </row>
     <row r="32" spans="1:93">
-      <c r="A32" s="15"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="11"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -44433,7 +44267,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="16"/>
+      <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -44507,28 +44341,28 @@
       <c r="CO32" s="1"/>
     </row>
     <row r="33" spans="1:93">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="21"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -45457,61 +45291,6 @@
       <c r="CO42" s="1"/>
     </row>
     <row r="43" spans="1:93">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
-      <c r="AK43" s="1"/>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="1"/>
-      <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="1"/>
-      <c r="AZ43" s="1"/>
-      <c r="BA43" s="1"/>
-      <c r="BB43" s="1"/>
-      <c r="BC43" s="1"/>
       <c r="BD43" s="1"/>
       <c r="BE43" s="1"/>
       <c r="BF43" s="1"/>
@@ -45543,242 +45322,12 @@
       <c r="CF43" s="1"/>
       <c r="CG43" s="1"/>
       <c r="CH43" s="1"/>
-      <c r="CI43" s="1"/>
-      <c r="CJ43" s="1"/>
-      <c r="CK43" s="1"/>
-      <c r="CL43" s="1"/>
-      <c r="CM43" s="1"/>
-      <c r="CN43" s="1"/>
-      <c r="CO43" s="1"/>
-    </row>
-    <row r="44" spans="1:93">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1"/>
-      <c r="AF44" s="1"/>
-      <c r="AG44" s="1"/>
-      <c r="AH44" s="1"/>
-      <c r="AI44" s="1"/>
-      <c r="AJ44" s="1"/>
-      <c r="AK44" s="1"/>
-      <c r="AL44" s="1"/>
-      <c r="AM44" s="1"/>
-      <c r="AN44" s="1"/>
-      <c r="AO44" s="1"/>
-      <c r="AP44" s="1"/>
-      <c r="AQ44" s="1"/>
-      <c r="AR44" s="1"/>
-      <c r="AS44" s="1"/>
-      <c r="AT44" s="1"/>
-      <c r="AU44" s="1"/>
-      <c r="AV44" s="1"/>
-      <c r="AW44" s="1"/>
-      <c r="AX44" s="1"/>
-      <c r="AY44" s="1"/>
-      <c r="AZ44" s="1"/>
-      <c r="BA44" s="1"/>
-      <c r="BB44" s="1"/>
-      <c r="BC44" s="1"/>
-      <c r="BD44" s="1"/>
-      <c r="BE44" s="1"/>
-      <c r="BF44" s="1"/>
-      <c r="BG44" s="1"/>
-      <c r="BH44" s="1"/>
-      <c r="BI44" s="1"/>
-      <c r="BJ44" s="1"/>
-      <c r="BK44" s="1"/>
-      <c r="BL44" s="1"/>
-      <c r="BM44" s="1"/>
-      <c r="BN44" s="1"/>
-      <c r="BO44" s="1"/>
-      <c r="BP44" s="1"/>
-      <c r="BQ44" s="1"/>
-      <c r="BR44" s="1"/>
-      <c r="BS44" s="1"/>
-      <c r="BT44" s="1"/>
-      <c r="BU44" s="1"/>
-      <c r="BV44" s="1"/>
-      <c r="BW44" s="1"/>
-      <c r="BX44" s="1"/>
-      <c r="BY44" s="1"/>
-      <c r="BZ44" s="1"/>
-      <c r="CA44" s="1"/>
-      <c r="CB44" s="1"/>
-      <c r="CC44" s="1"/>
-      <c r="CD44" s="1"/>
-      <c r="CE44" s="1"/>
-      <c r="CF44" s="1"/>
-      <c r="CG44" s="1"/>
-      <c r="CH44" s="1"/>
-      <c r="CI44" s="1"/>
-      <c r="CJ44" s="1"/>
-      <c r="CK44" s="1"/>
-      <c r="CL44" s="1"/>
-      <c r="CM44" s="1"/>
-      <c r="CN44" s="1"/>
-      <c r="CO44" s="1"/>
-    </row>
-    <row r="45" spans="1:93">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="1"/>
-      <c r="AH45" s="1"/>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="1"/>
-      <c r="AK45" s="1"/>
-      <c r="AL45" s="1"/>
-      <c r="AM45" s="1"/>
-      <c r="AN45" s="1"/>
-      <c r="AO45" s="1"/>
-      <c r="AP45" s="1"/>
-      <c r="AQ45" s="1"/>
-      <c r="AR45" s="1"/>
-      <c r="AS45" s="1"/>
-      <c r="AT45" s="1"/>
-      <c r="AU45" s="1"/>
-      <c r="AV45" s="1"/>
-      <c r="AW45" s="1"/>
-      <c r="AX45" s="1"/>
-      <c r="AY45" s="1"/>
-      <c r="AZ45" s="1"/>
-      <c r="BA45" s="1"/>
-      <c r="BB45" s="1"/>
-      <c r="BC45" s="1"/>
-      <c r="BD45" s="1"/>
-      <c r="BE45" s="1"/>
-      <c r="BF45" s="1"/>
-      <c r="BG45" s="1"/>
-      <c r="BH45" s="1"/>
-      <c r="BI45" s="1"/>
-      <c r="BJ45" s="1"/>
-      <c r="BK45" s="1"/>
-      <c r="BL45" s="1"/>
-      <c r="BM45" s="1"/>
-      <c r="BN45" s="1"/>
-      <c r="BO45" s="1"/>
-      <c r="BP45" s="1"/>
-      <c r="BQ45" s="1"/>
-      <c r="BR45" s="1"/>
-      <c r="BS45" s="1"/>
-      <c r="BT45" s="1"/>
-      <c r="BU45" s="1"/>
-      <c r="BV45" s="1"/>
-      <c r="BW45" s="1"/>
-      <c r="BX45" s="1"/>
-      <c r="BY45" s="1"/>
-      <c r="BZ45" s="1"/>
-      <c r="CA45" s="1"/>
-      <c r="CB45" s="1"/>
-      <c r="CC45" s="1"/>
-      <c r="CD45" s="1"/>
-      <c r="CE45" s="1"/>
-      <c r="CF45" s="1"/>
-      <c r="CG45" s="1"/>
-      <c r="CH45" s="1"/>
-      <c r="CI45" s="1"/>
-      <c r="CJ45" s="1"/>
-      <c r="CK45" s="1"/>
-      <c r="CL45" s="1"/>
-      <c r="CM45" s="1"/>
-      <c r="CN45" s="1"/>
-      <c r="CO45" s="1"/>
-    </row>
-    <row r="46" spans="1:93">
-      <c r="BD46" s="1"/>
-      <c r="BE46" s="1"/>
-      <c r="BF46" s="1"/>
-      <c r="BG46" s="1"/>
-      <c r="BH46" s="1"/>
-      <c r="BI46" s="1"/>
-      <c r="BJ46" s="1"/>
-      <c r="BK46" s="1"/>
-      <c r="BL46" s="1"/>
-      <c r="BM46" s="1"/>
-      <c r="BN46" s="1"/>
-      <c r="BO46" s="1"/>
-      <c r="BP46" s="1"/>
-      <c r="BQ46" s="1"/>
-      <c r="BR46" s="1"/>
-      <c r="BS46" s="1"/>
-      <c r="BT46" s="1"/>
-      <c r="BU46" s="1"/>
-      <c r="BV46" s="1"/>
-      <c r="BW46" s="1"/>
-      <c r="BX46" s="1"/>
-      <c r="BY46" s="1"/>
-      <c r="BZ46" s="1"/>
-      <c r="CA46" s="1"/>
-      <c r="CB46" s="1"/>
-      <c r="CC46" s="1"/>
-      <c r="CD46" s="1"/>
-      <c r="CE46" s="1"/>
-      <c r="CF46" s="1"/>
-      <c r="CG46" s="1"/>
-      <c r="CH46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:V2"/>
-    <mergeCell ref="D29:S30"/>
-    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="D26:S27"/>
+    <mergeCell ref="R18:S18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45798,28 +45347,28 @@
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:93">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="104"/>
+      <c r="A1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="119"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -45893,28 +45442,28 @@
       <c r="CO1" s="1"/>
     </row>
     <row r="2" spans="1:93">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="107"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="122"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -47760,24 +47309,24 @@
       <c r="A23" s="15"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="93" t="s">
+      <c r="D23" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="100"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="115"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="16"/>
@@ -47857,22 +47406,22 @@
       <c r="A24" s="15"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="101"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="116"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="16"/>
@@ -48047,24 +47596,24 @@
       <c r="A26" s="15"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="100"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="115"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="16"/>
@@ -48144,22 +47693,22 @@
       <c r="A27" s="15"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="101"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="113"/>
+      <c r="Q27" s="113"/>
+      <c r="R27" s="113"/>
+      <c r="S27" s="116"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="16"/>
